--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -53,28 +53,109 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>Citoyen, citoyenne !</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
   </si>
   <si>
     <t>Assurances, bonjour les dégats</t>
   </si>
   <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
     <t>2019-11-08T16:30:12.000Z</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>Franjo</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
@@ -83,43 +164,16 @@
     <t>Le crevard #5</t>
   </si>
   <si>
-    <t>Franjo</t>
-  </si>
-  <si>
     <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
@@ -131,60 +185,6 @@
     <t>2017-02-21T16:23:47.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
   </si>
   <si>
@@ -209,6 +209,27 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
+  </si>
+  <si>
+    <t>Les voyageurs relous - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-12-09T17:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
   </si>
   <si>
@@ -218,6 +239,36 @@
     <t>2019-12-24T11:57:18.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=ZZJhZ2yI4yA</t>
+  </si>
+  <si>
+    <t>Les malaises #3 - Avec Mathieu Madénian</t>
+  </si>
+  <si>
+    <t>2019-11-25T17:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
+  </si>
+  <si>
+    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
+  </si>
+  <si>
+    <t>2019-12-27T16:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
+  </si>
+  <si>
+    <t>besancenot : " une  partie du pays dit non a macron il a pas l'habitude"</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-11-22T03:31:47.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=RKISl_AKqLg</t>
   </si>
   <si>
@@ -227,46 +278,97 @@
     <t>2019-12-03T11:35:37.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=o53Sh7F_D0o</t>
+  </si>
+  <si>
+    <t>En garde à vue pour avoir traversé au rouge</t>
+  </si>
+  <si>
+    <t>2019-11-24T08:00:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
+  </si>
+  <si>
+    <t>Le cadeau de la France à tous les peuples du monde</t>
+  </si>
+  <si>
+    <t>2019-12-25T15:53:44.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_HYW_NDXILY</t>
+  </si>
+  <si>
+    <t>Message personnel à M.Macron</t>
+  </si>
+  <si>
+    <t>2019-12-01T10:25:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
   </si>
   <si>
     <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
   </si>
   <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
     <t>2019-12-10T12:12:49.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=o53Sh7F_D0o</t>
-  </si>
-  <si>
-    <t>En garde à vue pour avoir traversé au rouge</t>
-  </si>
-  <si>
-    <t>2019-11-24T08:00:11.000Z</t>
+    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
+  </si>
+  <si>
+    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
+  </si>
+  <si>
+    <t>2019-12-05T08:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
+  </si>
+  <si>
+    <t>La détermination doit vaincre les craintes</t>
+  </si>
+  <si>
+    <t>2019-12-09T23:25:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
@@ -278,13 +380,13 @@
     <t>2019-12-27T15:54:18.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
-  </si>
-  <si>
-    <t>besancenot : " une  partie du pays dit non a macron il a pas l'habitude"</t>
-  </si>
-  <si>
-    <t>2019-11-22T03:31:47.000Z</t>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
@@ -296,33 +398,6 @@
     <t>2019-06-12T18:00:03.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_HYW_NDXILY</t>
-  </si>
-  <si>
-    <t>Message personnel à M.Macron</t>
-  </si>
-  <si>
-    <t>2019-12-01T10:25:52.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
   </si>
   <si>
@@ -332,63 +407,6 @@
     <t>2019-12-12T13:19:08.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZZJhZ2yI4yA</t>
-  </si>
-  <si>
-    <t>Les malaises #3 - Avec Mathieu Madénian</t>
-  </si>
-  <si>
-    <t>2019-11-25T17:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
-  </si>
-  <si>
-    <t>Le cadeau de la France à tous les peuples du monde</t>
-  </si>
-  <si>
-    <t>2019-12-25T15:53:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
-  </si>
-  <si>
-    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
-  </si>
-  <si>
-    <t>2019-12-05T08:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
   </si>
   <si>
@@ -396,24 +414,6 @@
   </si>
   <si>
     <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -846,13 +846,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>3080</v>
+        <v>8968</v>
       </c>
       <c r="F3" s="3">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="G3" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -881,13 +881,13 @@
         <v>19</v>
       </c>
       <c r="E4" s="3">
-        <v>8968</v>
+        <v>4759</v>
       </c>
       <c r="F4" s="3">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G4" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -910,19 +910,19 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="3">
-        <v>511312</v>
+        <v>3080</v>
       </c>
       <c r="F5" s="3">
-        <v>15167</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3">
-        <v>402</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -931,33 +931,33 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="3">
-        <v>18665</v>
+        <v>222595</v>
       </c>
       <c r="F6" s="3">
-        <v>659</v>
+        <v>9022</v>
       </c>
       <c r="G6" s="3">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -966,33 +966,33 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>74953</v>
+        <v>2883</v>
       </c>
       <c r="F7" s="3">
-        <v>1016</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>212</v>
+        <v>6</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -1009,16 +1009,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3">
         <v>25592</v>
@@ -1044,25 +1044,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" s="3">
-        <v>4183126</v>
+        <v>566966</v>
       </c>
       <c r="F9" s="3">
-        <v>49430</v>
+        <v>18782</v>
       </c>
       <c r="G9" s="3">
-        <v>5701</v>
+        <v>416</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1071,33 +1071,33 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1196</v>
+        <v>298</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>2883</v>
+        <v>69498</v>
       </c>
       <c r="F10" s="3">
-        <v>42</v>
+        <v>1189</v>
       </c>
       <c r="G10" s="3">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1120,19 +1120,19 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="3">
-        <v>222595</v>
+        <v>18665</v>
       </c>
       <c r="F11" s="3">
-        <v>9022</v>
+        <v>659</v>
       </c>
       <c r="G11" s="3">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1155,19 +1155,19 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="3">
-        <v>566966</v>
+        <v>74953</v>
       </c>
       <c r="F12" s="3">
-        <v>18782</v>
+        <v>1016</v>
       </c>
       <c r="G12" s="3">
-        <v>416</v>
+        <v>29</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>298</v>
+        <v>212</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1190,19 +1190,19 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="3">
-        <v>69498</v>
+        <v>511312</v>
       </c>
       <c r="F13" s="3">
-        <v>1189</v>
+        <v>15167</v>
       </c>
       <c r="G13" s="3">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1225,7 +1225,7 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
@@ -1249,7 +1249,7 @@
         <v>260</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1260,19 +1260,19 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="3">
-        <v>4759</v>
+        <v>4183126</v>
       </c>
       <c r="F15" s="3">
-        <v>129</v>
+        <v>49430</v>
       </c>
       <c r="G15" s="3">
-        <v>6</v>
+        <v>5701</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -1281,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>1196</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1295,7 +1295,7 @@
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>58</v>
@@ -1365,19 +1365,19 @@
         <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="3">
-        <v>3021</v>
+        <v>113046</v>
       </c>
       <c r="F18" s="3">
-        <v>580</v>
+        <v>8422</v>
       </c>
       <c r="G18" s="3">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1400,19 +1400,19 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3">
-        <v>4899</v>
+        <v>110</v>
       </c>
       <c r="F19" s="3">
-        <v>603</v>
+        <v>2</v>
       </c>
       <c r="G19" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1429,22 +1429,22 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="E20" s="3">
-        <v>5563</v>
+        <v>3021</v>
       </c>
       <c r="F20" s="3">
-        <v>265</v>
+        <v>580</v>
       </c>
       <c r="G20" s="3">
         <v>13</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1470,19 +1470,19 @@
         <v>75</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>151373</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>10158</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -1499,25 +1499,25 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
       <c r="E22" s="3">
-        <v>6</v>
+        <v>2959</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1534,25 +1534,25 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
       </c>
       <c r="D23" t="s">
         <v>83</v>
       </c>
       <c r="E23" s="3">
-        <v>3462</v>
+        <v>5194</v>
       </c>
       <c r="F23" s="3">
-        <v>144</v>
+        <v>299</v>
       </c>
       <c r="G23" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1581,13 +1581,13 @@
         <v>86</v>
       </c>
       <c r="E24" s="3">
-        <v>5962</v>
+        <v>4899</v>
       </c>
       <c r="F24" s="3">
-        <v>765</v>
+        <v>603</v>
       </c>
       <c r="G24" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1610,19 +1610,19 @@
         <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="3">
-        <v>5194</v>
+        <v>3462</v>
       </c>
       <c r="F25" s="3">
-        <v>299</v>
+        <v>144</v>
       </c>
       <c r="G25" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -1645,16 +1645,16 @@
         <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
         <v>92</v>
       </c>
       <c r="E26" s="3">
-        <v>4711</v>
+        <v>13154</v>
       </c>
       <c r="F26" s="3">
-        <v>387</v>
+        <v>1256</v>
       </c>
       <c r="G26" s="3">
         <v>38</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -1680,19 +1680,19 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" s="3">
-        <v>7431</v>
+        <v>6</v>
       </c>
       <c r="F27" s="3">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -1709,25 +1709,25 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E28" s="3">
-        <v>2959</v>
+        <v>7161</v>
       </c>
       <c r="F28" s="3">
-        <v>38</v>
+        <v>836</v>
       </c>
       <c r="G28" s="3">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -1744,25 +1744,25 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E29" s="3">
-        <v>7161</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3">
-        <v>836</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1779,25 +1779,25 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E30" s="3">
-        <v>5</v>
+        <v>5563</v>
       </c>
       <c r="F30" s="3">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -1814,25 +1814,25 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E31" s="3">
-        <v>2848</v>
+        <v>12342</v>
       </c>
       <c r="F31" s="3">
-        <v>523</v>
+        <v>330</v>
       </c>
       <c r="G31" s="3">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -1849,25 +1849,25 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E32" s="3">
-        <v>151373</v>
+        <v>7431</v>
       </c>
       <c r="F32" s="3">
-        <v>10158</v>
+        <v>661</v>
       </c>
       <c r="G32" s="3">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -1884,25 +1884,25 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E33" s="3">
-        <v>13154</v>
+        <v>126844</v>
       </c>
       <c r="F33" s="3">
-        <v>1256</v>
+        <v>8977</v>
       </c>
       <c r="G33" s="3">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -1919,25 +1919,25 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
         <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E34" s="3">
-        <v>1593</v>
+        <v>2848</v>
       </c>
       <c r="F34" s="3">
-        <v>331</v>
+        <v>523</v>
       </c>
       <c r="G34" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -1954,25 +1954,25 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E35" s="3">
-        <v>12342</v>
+        <v>5962</v>
       </c>
       <c r="F35" s="3">
-        <v>330</v>
+        <v>765</v>
       </c>
       <c r="G35" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -1989,25 +1989,25 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
         <v>123</v>
       </c>
       <c r="E36" s="3">
-        <v>110</v>
+        <v>1593</v>
       </c>
       <c r="F36" s="3">
-        <v>2</v>
+        <v>331</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -2030,19 +2030,19 @@
         <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
         <v>126</v>
       </c>
       <c r="E37" s="3">
-        <v>5083</v>
+        <v>4711</v>
       </c>
       <c r="F37" s="3">
-        <v>594</v>
+        <v>387</v>
       </c>
       <c r="G37" s="3">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -2065,19 +2065,19 @@
         <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
         <v>129</v>
       </c>
       <c r="E38" s="3">
-        <v>126844</v>
+        <v>5</v>
       </c>
       <c r="F38" s="3">
-        <v>8977</v>
+        <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -2100,19 +2100,19 @@
         <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
         <v>132</v>
       </c>
       <c r="E39" s="3">
-        <v>113046</v>
+        <v>5083</v>
       </c>
       <c r="F39" s="3">
-        <v>8422</v>
+        <v>594</v>
       </c>
       <c r="G39" s="3">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -2185,7 +2185,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>127464</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>73</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>22</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
   <si>
     <t>URL</t>
   </si>
@@ -53,72 +53,45 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>Franjo</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
   </si>
   <si>
     <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
   </si>
   <si>
-    <t>Franjo</t>
-  </si>
-  <si>
     <t>2019-04-15T15:30:02.000Z</t>
   </si>
   <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
   </si>
   <si>
@@ -128,16 +101,31 @@
     <t>2019-07-15T15:45:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
@@ -149,49 +137,190 @@
     <t>2017-07-09T23:51:59.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
+    <t>https://www.youtube.com/watch?v=ZZJhZ2yI4yA</t>
+  </si>
+  <si>
+    <t>Les malaises #3 - Avec Mathieu Madénian</t>
+  </si>
+  <si>
+    <t>2019-11-25T17:00:08.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
+  </si>
+  <si>
+    <t>Impact du Procès de Milan sur la France et le monde</t>
+  </si>
+  <si>
+    <t>Demo Sophie</t>
+  </si>
+  <si>
+    <t>2019-12-27T15:54:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
+  </si>
+  <si>
+    <t>Les voyageurs relous - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-12-09T17:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RKISl_AKqLg</t>
+  </si>
+  <si>
+    <t>ADP - RIC - Procès des dirigeants -  précisions</t>
+  </si>
+  <si>
+    <t>2019-12-03T11:35:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
+  </si>
+  <si>
+    <t>Le cadeau de la France à tous les peuples du monde</t>
+  </si>
+  <si>
+    <t>2019-12-25T15:53:44.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
+  </si>
+  <si>
+    <t>La détermination doit vaincre les craintes</t>
+  </si>
+  <si>
+    <t>2019-12-09T23:25:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
+  </si>
+  <si>
+    <t>besancenot : " une  partie du pays dit non a macron il a pas l'habitude"</t>
+  </si>
+  <si>
+    <t>2019-11-22T03:31:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_HYW_NDXILY</t>
+  </si>
+  <si>
+    <t>Message personnel à M.Macron</t>
+  </si>
+  <si>
+    <t>2019-12-01T10:25:52.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=-eu3ZRWdFKI</t>
@@ -200,220 +329,7 @@
     <t>Philosophons sur l'égo</t>
   </si>
   <si>
-    <t>Demo Sophie</t>
-  </si>
-  <si>
     <t>2019-11-28T19:28:28.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZZJhZ2yI4yA</t>
-  </si>
-  <si>
-    <t>Les malaises #3 - Avec Mathieu Madénian</t>
-  </si>
-  <si>
-    <t>2019-11-25T17:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
-  </si>
-  <si>
-    <t>besancenot : " une  partie du pays dit non a macron il a pas l'habitude"</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-11-22T03:31:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RKISl_AKqLg</t>
-  </si>
-  <si>
-    <t>ADP - RIC - Procès des dirigeants -  précisions</t>
-  </si>
-  <si>
-    <t>2019-12-03T11:35:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=o53Sh7F_D0o</t>
-  </si>
-  <si>
-    <t>En garde à vue pour avoir traversé au rouge</t>
-  </si>
-  <si>
-    <t>2019-11-24T08:00:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
-  </si>
-  <si>
-    <t>Le cadeau de la France à tous les peuples du monde</t>
-  </si>
-  <si>
-    <t>2019-12-25T15:53:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_HYW_NDXILY</t>
-  </si>
-  <si>
-    <t>Message personnel à M.Macron</t>
-  </si>
-  <si>
-    <t>2019-12-01T10:25:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
-  </si>
-  <si>
-    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
-  </si>
-  <si>
-    <t>2019-12-05T08:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -774,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -846,13 +762,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>8968</v>
+        <v>511312</v>
       </c>
       <c r="F3" s="3">
-        <v>117</v>
+        <v>15167</v>
       </c>
       <c r="G3" s="3">
-        <v>15</v>
+        <v>402</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -861,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -875,19 +791,19 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>4759</v>
+        <v>69498</v>
       </c>
       <c r="F4" s="3">
-        <v>129</v>
+        <v>1189</v>
       </c>
       <c r="G4" s="3">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -896,33 +812,33 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>3080</v>
+        <v>222595</v>
       </c>
       <c r="F5" s="3">
-        <v>58</v>
+        <v>9022</v>
       </c>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -931,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -939,25 +855,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>222595</v>
+        <v>566966</v>
       </c>
       <c r="F6" s="3">
-        <v>9022</v>
+        <v>18782</v>
       </c>
       <c r="G6" s="3">
-        <v>147</v>
+        <v>416</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -966,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -986,13 +902,13 @@
         <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>2883</v>
+        <v>472979</v>
       </c>
       <c r="F7" s="3">
-        <v>42</v>
+        <v>20185</v>
       </c>
       <c r="G7" s="3">
-        <v>6</v>
+        <v>515</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -1001,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -1015,19 +931,19 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="3">
-        <v>25592</v>
+        <v>24890</v>
       </c>
       <c r="F8" s="3">
-        <v>221</v>
+        <v>1321</v>
       </c>
       <c r="G8" s="3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1036,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1050,19 +966,19 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="3">
-        <v>566966</v>
+        <v>4183126</v>
       </c>
       <c r="F9" s="3">
-        <v>18782</v>
+        <v>49430</v>
       </c>
       <c r="G9" s="3">
-        <v>416</v>
+        <v>5701</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1071,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>298</v>
+        <v>1196</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1085,19 +1001,19 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
       <c r="E10" s="3">
-        <v>69498</v>
+        <v>18665</v>
       </c>
       <c r="F10" s="3">
-        <v>1189</v>
+        <v>659</v>
       </c>
       <c r="G10" s="3">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -1106,45 +1022,45 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
       <c r="E11" s="3">
-        <v>18665</v>
+        <v>151373</v>
       </c>
       <c r="F11" s="3">
-        <v>659</v>
+        <v>10158</v>
       </c>
       <c r="G11" s="3">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1155,194 +1071,194 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3">
-        <v>74953</v>
+        <v>110</v>
       </c>
       <c r="F12" s="3">
-        <v>1016</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3">
-        <v>511312</v>
+        <v>5962</v>
       </c>
       <c r="F13" s="3">
-        <v>15167</v>
+        <v>765</v>
       </c>
       <c r="G13" s="3">
-        <v>402</v>
+        <v>21</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3">
-        <v>472979</v>
+        <v>113046</v>
       </c>
       <c r="F14" s="3">
-        <v>20185</v>
+        <v>8422</v>
       </c>
       <c r="G14" s="3">
-        <v>515</v>
+        <v>83</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>260</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3">
-        <v>4183126</v>
+        <v>4899</v>
       </c>
       <c r="F15" s="3">
-        <v>49430</v>
+        <v>603</v>
       </c>
       <c r="G15" s="3">
-        <v>5701</v>
+        <v>19</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1196</v>
+        <v>46</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3">
-        <v>24890</v>
+        <v>13154</v>
       </c>
       <c r="F16" s="3">
-        <v>1321</v>
+        <v>1256</v>
       </c>
       <c r="G16" s="3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3">
-        <v>3716</v>
+        <v>5563</v>
       </c>
       <c r="F17" s="3">
-        <v>426</v>
+        <v>265</v>
       </c>
       <c r="G17" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1351,33 +1267,33 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3">
-        <v>113046</v>
+        <v>4711</v>
       </c>
       <c r="F18" s="3">
-        <v>8422</v>
+        <v>387</v>
       </c>
       <c r="G18" s="3">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1386,33 +1302,33 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="3">
-        <v>110</v>
+        <v>1593</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>331</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1424,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1435,19 +1351,19 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="E20" s="3">
-        <v>3021</v>
+        <v>5083</v>
       </c>
       <c r="F20" s="3">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="G20" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1456,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1470,19 +1386,19 @@
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
       </c>
       <c r="E21" s="3">
-        <v>151373</v>
+        <v>126844</v>
       </c>
       <c r="F21" s="3">
-        <v>10158</v>
+        <v>8977</v>
       </c>
       <c r="G21" s="3">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1491,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="L21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1505,19 +1421,19 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
         <v>79</v>
       </c>
       <c r="E22" s="3">
-        <v>2959</v>
+        <v>7431</v>
       </c>
       <c r="F22" s="3">
-        <v>38</v>
+        <v>661</v>
       </c>
       <c r="G22" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1526,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="L22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1540,16 +1456,16 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
       <c r="E23" s="3">
-        <v>5194</v>
+        <v>3021</v>
       </c>
       <c r="F23" s="3">
-        <v>299</v>
+        <v>580</v>
       </c>
       <c r="G23" s="3">
         <v>13</v>
@@ -1561,33 +1477,33 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="L23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>85</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
       </c>
       <c r="D24" t="s">
         <v>86</v>
       </c>
       <c r="E24" s="3">
-        <v>4899</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3">
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1596,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1610,19 +1526,19 @@
         <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="3">
-        <v>3462</v>
+        <v>5194</v>
       </c>
       <c r="F25" s="3">
-        <v>144</v>
+        <v>299</v>
       </c>
       <c r="G25" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1631,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1645,19 +1561,19 @@
         <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
         <v>92</v>
       </c>
       <c r="E26" s="3">
-        <v>13154</v>
+        <v>2848</v>
       </c>
       <c r="F26" s="3">
-        <v>1256</v>
+        <v>523</v>
       </c>
       <c r="G26" s="3">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1666,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1680,13 +1596,13 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
         <v>95</v>
       </c>
-      <c r="D27" t="s">
-        <v>96</v>
-      </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1704,30 +1620,30 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
         <v>97</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>99</v>
-      </c>
       <c r="E28" s="3">
-        <v>7161</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>836</v>
+        <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1739,30 +1655,30 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
         <v>100</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
         <v>101</v>
       </c>
-      <c r="C29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" t="s">
-        <v>102</v>
-      </c>
       <c r="E29" s="3">
-        <v>2</v>
+        <v>7161</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1774,30 +1690,30 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
         <v>103</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
         <v>104</v>
       </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" t="s">
-        <v>105</v>
-      </c>
       <c r="E30" s="3">
-        <v>5563</v>
+        <v>3716</v>
       </c>
       <c r="F30" s="3">
-        <v>265</v>
+        <v>426</v>
       </c>
       <c r="G30" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -1806,325 +1722,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="3">
-        <v>12342</v>
-      </c>
-      <c r="F31" s="3">
-        <v>330</v>
-      </c>
-      <c r="G31" s="3">
-        <v>23</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>36</v>
-      </c>
-      <c r="L31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="3">
-        <v>7431</v>
-      </c>
-      <c r="F32" s="3">
-        <v>661</v>
-      </c>
-      <c r="G32" s="3">
-        <v>20</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>59</v>
-      </c>
-      <c r="L32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="3">
-        <v>126844</v>
-      </c>
-      <c r="F33" s="3">
-        <v>8977</v>
-      </c>
-      <c r="G33" s="3">
-        <v>198</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>66</v>
-      </c>
-      <c r="L33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2848</v>
-      </c>
-      <c r="F34" s="3">
-        <v>523</v>
-      </c>
-      <c r="G34" s="3">
-        <v>11</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5962</v>
-      </c>
-      <c r="F35" s="3">
-        <v>765</v>
-      </c>
-      <c r="G35" s="3">
-        <v>21</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>103</v>
-      </c>
-      <c r="L35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1593</v>
-      </c>
-      <c r="F36" s="3">
-        <v>331</v>
-      </c>
-      <c r="G36" s="3">
-        <v>6</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="3">
-        <v>4711</v>
-      </c>
-      <c r="F37" s="3">
-        <v>387</v>
-      </c>
-      <c r="G37" s="3">
-        <v>38</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>97</v>
-      </c>
-      <c r="L37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="3">
-        <v>5</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="3">
-        <v>5083</v>
-      </c>
-      <c r="F39" s="3">
-        <v>594</v>
-      </c>
-      <c r="G39" s="3">
-        <v>22</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2157,15 +1758,6 @@
     <hyperlink ref="A28" r:id="rId26"/>
     <hyperlink ref="A29" r:id="rId27"/>
     <hyperlink ref="A30" r:id="rId28"/>
-    <hyperlink ref="A31" r:id="rId29"/>
-    <hyperlink ref="A32" r:id="rId30"/>
-    <hyperlink ref="A33" r:id="rId31"/>
-    <hyperlink ref="A34" r:id="rId32"/>
-    <hyperlink ref="A35" r:id="rId33"/>
-    <hyperlink ref="A36" r:id="rId34"/>
-    <hyperlink ref="A37" r:id="rId35"/>
-    <hyperlink ref="A38" r:id="rId36"/>
-    <hyperlink ref="A39" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2173,7 +1765,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2185,15 +1777,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B1">
-        <v>127464</v>
+        <v>126844</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>26578</v>
@@ -2201,41 +1793,33 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B3">
-        <v>3036</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -53,72 +53,81 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>Franjo</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
   </si>
   <si>
     <t>Le crevard #5</t>
   </si>
   <si>
-    <t>Franjo</t>
-  </si>
-  <si>
     <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
   </si>
   <si>
@@ -128,13 +137,154 @@
     <t>2017-02-21T16:23:47.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>Demo Sophie</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
+  </si>
+  <si>
+    <t>besancenot : " une  partie du pays dit non a macron il a pas l'habitude"</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-11-22T03:31:47.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
+  </si>
+  <si>
+    <t>Les voyageurs relous - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-12-09T17:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_HYW_NDXILY</t>
+  </si>
+  <si>
+    <t>Message personnel à M.Macron</t>
+  </si>
+  <si>
+    <t>2019-12-01T10:25:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RKISl_AKqLg</t>
+  </si>
+  <si>
+    <t>ADP - RIC - Procès des dirigeants -  précisions</t>
+  </si>
+  <si>
+    <t>2019-12-03T11:35:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
+  </si>
+  <si>
+    <t>La détermination doit vaincre les craintes</t>
+  </si>
+  <si>
+    <t>2019-12-09T23:25:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
+  </si>
+  <si>
+    <t>Impact du Procès de Milan sur la France et le monde</t>
+  </si>
+  <si>
+    <t>2019-12-27T15:54:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-eu3ZRWdFKI</t>
+  </si>
+  <si>
+    <t>Philosophons sur l'égo</t>
+  </si>
+  <si>
+    <t>2019-11-28T19:28:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ZZJhZ2yI4yA</t>
@@ -146,49 +296,31 @@
     <t>2019-11-25T17:00:08.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>Demo Sophie</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RKISl_AKqLg</t>
-  </si>
-  <si>
-    <t>ADP - RIC - Procès des dirigeants -  précisions</t>
-  </si>
-  <si>
-    <t>2019-12-03T11:35:37.000Z</t>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
@@ -198,138 +330,6 @@
   </si>
   <si>
     <t>2019-12-25T15:53:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
-  </si>
-  <si>
-    <t>besancenot : " une  partie du pays dit non a macron il a pas l'habitude"</t>
-  </si>
-  <si>
-    <t>2019-11-22T03:31:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_HYW_NDXILY</t>
-  </si>
-  <si>
-    <t>Message personnel à M.Macron</t>
-  </si>
-  <si>
-    <t>2019-12-01T10:25:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-eu3ZRWdFKI</t>
-  </si>
-  <si>
-    <t>Philosophons sur l'égo</t>
-  </si>
-  <si>
-    <t>2019-11-28T19:28:28.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -762,13 +762,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>511312</v>
+        <v>222595</v>
       </c>
       <c r="F3" s="3">
-        <v>15167</v>
+        <v>9022</v>
       </c>
       <c r="G3" s="3">
-        <v>402</v>
+        <v>147</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -797,13 +797,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>69498</v>
+        <v>18665</v>
       </c>
       <c r="F4" s="3">
-        <v>1189</v>
+        <v>659</v>
       </c>
       <c r="G4" s="3">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="L4" t="s">
         <v>21</v>
@@ -826,19 +826,19 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>222595</v>
+        <v>69498</v>
       </c>
       <c r="F5" s="3">
-        <v>9022</v>
+        <v>1189</v>
       </c>
       <c r="G5" s="3">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -896,19 +896,19 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>472979</v>
+        <v>24890</v>
       </c>
       <c r="F7" s="3">
-        <v>20185</v>
+        <v>1321</v>
       </c>
       <c r="G7" s="3">
-        <v>515</v>
+        <v>34</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>260</v>
+        <v>154</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -931,19 +931,19 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="3">
-        <v>24890</v>
+        <v>472979</v>
       </c>
       <c r="F8" s="3">
-        <v>1321</v>
+        <v>20185</v>
       </c>
       <c r="G8" s="3">
-        <v>34</v>
+        <v>515</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>154</v>
+        <v>260</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -972,13 +972,13 @@
         <v>36</v>
       </c>
       <c r="E9" s="3">
-        <v>4183126</v>
+        <v>511312</v>
       </c>
       <c r="F9" s="3">
-        <v>49430</v>
+        <v>15167</v>
       </c>
       <c r="G9" s="3">
-        <v>5701</v>
+        <v>402</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1196</v>
+        <v>201</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -1001,19 +1001,19 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="3">
-        <v>18665</v>
+        <v>4183126</v>
       </c>
       <c r="F10" s="3">
-        <v>659</v>
+        <v>49430</v>
       </c>
       <c r="G10" s="3">
-        <v>14</v>
+        <v>5701</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>109</v>
+        <v>1196</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1036,19 +1036,19 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3">
-        <v>151373</v>
+        <v>3021</v>
       </c>
       <c r="F11" s="3">
-        <v>10158</v>
+        <v>580</v>
       </c>
       <c r="G11" s="3">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="L11" t="s">
         <v>21</v>
@@ -1077,13 +1077,13 @@
         <v>47</v>
       </c>
       <c r="E12" s="3">
-        <v>110</v>
+        <v>5194</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>299</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s">
         <v>21</v>
@@ -1100,25 +1100,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3">
-        <v>5962</v>
+        <v>110</v>
       </c>
       <c r="F13" s="3">
-        <v>765</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>21</v>
@@ -1135,25 +1135,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3">
-        <v>113046</v>
+        <v>5083</v>
       </c>
       <c r="F14" s="3">
-        <v>8422</v>
+        <v>594</v>
       </c>
       <c r="G14" s="3">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>21</v>
@@ -1170,25 +1170,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3">
-        <v>4899</v>
+        <v>5563</v>
       </c>
       <c r="F15" s="3">
-        <v>603</v>
+        <v>265</v>
       </c>
       <c r="G15" s="3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="L15" t="s">
         <v>21</v>
@@ -1205,25 +1205,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="3">
-        <v>13154</v>
+        <v>1593</v>
       </c>
       <c r="F16" s="3">
-        <v>1256</v>
+        <v>331</v>
       </c>
       <c r="G16" s="3">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>21</v>
@@ -1240,25 +1240,25 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="3">
-        <v>5563</v>
+        <v>113046</v>
       </c>
       <c r="F17" s="3">
-        <v>265</v>
+        <v>8422</v>
       </c>
       <c r="G17" s="3">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="L17" t="s">
         <v>21</v>
@@ -1281,19 +1281,19 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="3">
-        <v>4711</v>
+        <v>7161</v>
       </c>
       <c r="F18" s="3">
-        <v>387</v>
+        <v>836</v>
       </c>
       <c r="G18" s="3">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>21</v>
@@ -1316,19 +1316,19 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="3">
-        <v>1593</v>
+        <v>4899</v>
       </c>
       <c r="F19" s="3">
-        <v>331</v>
+        <v>603</v>
       </c>
       <c r="G19" s="3">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="L19" t="s">
         <v>21</v>
@@ -1351,19 +1351,19 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="E20" s="3">
-        <v>5083</v>
+        <v>7431</v>
       </c>
       <c r="F20" s="3">
-        <v>594</v>
+        <v>661</v>
       </c>
       <c r="G20" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="L20" t="s">
         <v>21</v>
@@ -1386,19 +1386,19 @@
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="3">
-        <v>126844</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
-        <v>8977</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>21</v>
@@ -1415,25 +1415,25 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3">
-        <v>7431</v>
+        <v>5962</v>
       </c>
       <c r="F22" s="3">
-        <v>661</v>
+        <v>765</v>
       </c>
       <c r="G22" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="L22" t="s">
         <v>21</v>
@@ -1450,25 +1450,25 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="3">
-        <v>3021</v>
+        <v>3716</v>
       </c>
       <c r="F23" s="3">
-        <v>580</v>
+        <v>426</v>
       </c>
       <c r="G23" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="L23" t="s">
         <v>21</v>
@@ -1485,13 +1485,13 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
         <v>86</v>
@@ -1526,19 +1526,19 @@
         <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="3">
-        <v>5194</v>
+        <v>4711</v>
       </c>
       <c r="F25" s="3">
-        <v>299</v>
+        <v>387</v>
       </c>
       <c r="G25" s="3">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="L25" t="s">
         <v>21</v>
@@ -1561,19 +1561,19 @@
         <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>92</v>
       </c>
       <c r="E26" s="3">
-        <v>2848</v>
+        <v>151373</v>
       </c>
       <c r="F26" s="3">
-        <v>523</v>
+        <v>10158</v>
       </c>
       <c r="G26" s="3">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s">
         <v>21</v>
@@ -1596,19 +1596,19 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>126844</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>8977</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s">
         <v>21</v>
@@ -1631,19 +1631,19 @@
         <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
         <v>98</v>
       </c>
       <c r="E28" s="3">
-        <v>5</v>
+        <v>2848</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1666,19 +1666,19 @@
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
         <v>101</v>
       </c>
       <c r="E29" s="3">
-        <v>7161</v>
+        <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>836</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1701,19 +1701,19 @@
         <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="3">
-        <v>3716</v>
+        <v>13154</v>
       </c>
       <c r="F30" s="3">
-        <v>426</v>
+        <v>1256</v>
       </c>
       <c r="G30" s="3">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s">
         <v>21</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>26578</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>45</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -53,52 +53,79 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>Franjo</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
   </si>
   <si>
     <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
   </si>
   <si>
-    <t>Franjo</t>
-  </si>
-  <si>
     <t>2019-04-15T15:30:02.000Z</t>
   </si>
   <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
@@ -110,31 +137,37 @@
     <t>2018-01-03T19:07:26.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
+    <t>https://www.youtube.com/watch?v=RKISl_AKqLg</t>
+  </si>
+  <si>
+    <t>ADP - RIC - Procès des dirigeants -  précisions</t>
+  </si>
+  <si>
+    <t>Demo Sophie</t>
+  </si>
+  <si>
+    <t>2019-12-03T11:35:37.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
@@ -143,12 +176,105 @@
     <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
   </si>
   <si>
-    <t>Demo Sophie</t>
-  </si>
-  <si>
     <t>2019-12-24T11:57:18.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
+  </si>
+  <si>
+    <t>La détermination doit vaincre les craintes</t>
+  </si>
+  <si>
+    <t>2019-12-09T23:25:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-eu3ZRWdFKI</t>
+  </si>
+  <si>
+    <t>Philosophons sur l'égo</t>
+  </si>
+  <si>
+    <t>2019-11-28T19:28:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
+  </si>
+  <si>
+    <t>Les voyageurs relous - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-12-09T17:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_HYW_NDXILY</t>
+  </si>
+  <si>
+    <t>Message personnel à M.Macron</t>
+  </si>
+  <si>
+    <t>2019-12-01T10:25:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZZJhZ2yI4yA</t>
+  </si>
+  <si>
+    <t>Les malaises #3 - Avec Mathieu Madénian</t>
+  </si>
+  <si>
+    <t>2019-11-25T17:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
   </si>
   <si>
@@ -161,30 +287,6 @@
     <t>2019-11-22T03:31:47.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
   </si>
   <si>
@@ -194,6 +296,24 @@
     <t>2019-12-10T12:12:49.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
+  </si>
+  <si>
+    <t>Le cadeau de la France à tous les peuples du monde</t>
+  </si>
+  <si>
+    <t>2019-12-25T15:53:44.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
+  </si>
+  <si>
+    <t>Impact du Procès de Milan sur la France et le monde</t>
+  </si>
+  <si>
+    <t>2019-12-27T15:54:18.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
   </si>
   <si>
@@ -203,108 +323,6 @@
     <t>2019-12-28T19:53:21.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_HYW_NDXILY</t>
-  </si>
-  <si>
-    <t>Message personnel à M.Macron</t>
-  </si>
-  <si>
-    <t>2019-12-01T10:25:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RKISl_AKqLg</t>
-  </si>
-  <si>
-    <t>ADP - RIC - Procès des dirigeants -  précisions</t>
-  </si>
-  <si>
-    <t>2019-12-03T11:35:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-eu3ZRWdFKI</t>
-  </si>
-  <si>
-    <t>Philosophons sur l'égo</t>
-  </si>
-  <si>
-    <t>2019-11-28T19:28:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZZJhZ2yI4yA</t>
-  </si>
-  <si>
-    <t>Les malaises #3 - Avec Mathieu Madénian</t>
-  </si>
-  <si>
-    <t>2019-11-25T17:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
   </si>
   <si>
@@ -312,24 +330,6 @@
   </si>
   <si>
     <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
-  </si>
-  <si>
-    <t>Le cadeau de la France à tous les peuples du monde</t>
-  </si>
-  <si>
-    <t>2019-12-25T15:53:44.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -762,13 +762,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>222595</v>
+        <v>511312</v>
       </c>
       <c r="F3" s="3">
-        <v>9022</v>
+        <v>15167</v>
       </c>
       <c r="G3" s="3">
-        <v>147</v>
+        <v>402</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -791,19 +791,19 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="3">
-        <v>18665</v>
+        <v>566966</v>
       </c>
       <c r="F4" s="3">
-        <v>659</v>
+        <v>18782</v>
       </c>
       <c r="G4" s="3">
-        <v>14</v>
+        <v>416</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -812,33 +812,33 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="3">
-        <v>69498</v>
+        <v>18665</v>
       </c>
       <c r="F5" s="3">
-        <v>1189</v>
+        <v>659</v>
       </c>
       <c r="G5" s="3">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -867,13 +867,13 @@
         <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>566966</v>
+        <v>472979</v>
       </c>
       <c r="F6" s="3">
-        <v>18782</v>
+        <v>20185</v>
       </c>
       <c r="G6" s="3">
-        <v>416</v>
+        <v>515</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>24890</v>
+        <v>69498</v>
       </c>
       <c r="F7" s="3">
-        <v>1321</v>
+        <v>1189</v>
       </c>
       <c r="G7" s="3">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -937,13 +937,13 @@
         <v>33</v>
       </c>
       <c r="E8" s="3">
-        <v>472979</v>
+        <v>222595</v>
       </c>
       <c r="F8" s="3">
-        <v>20185</v>
+        <v>9022</v>
       </c>
       <c r="G8" s="3">
-        <v>515</v>
+        <v>147</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -972,13 +972,13 @@
         <v>36</v>
       </c>
       <c r="E9" s="3">
-        <v>511312</v>
+        <v>4183126</v>
       </c>
       <c r="F9" s="3">
-        <v>15167</v>
+        <v>49430</v>
       </c>
       <c r="G9" s="3">
-        <v>402</v>
+        <v>5701</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>201</v>
+        <v>1196</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -1001,19 +1001,19 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="3">
-        <v>4183126</v>
+        <v>24890</v>
       </c>
       <c r="F10" s="3">
-        <v>49430</v>
+        <v>1321</v>
       </c>
       <c r="G10" s="3">
-        <v>5701</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1196</v>
+        <v>154</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1042,13 +1042,13 @@
         <v>43</v>
       </c>
       <c r="E11" s="3">
-        <v>3021</v>
+        <v>4899</v>
       </c>
       <c r="F11" s="3">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="G11" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1057,33 +1057,33 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="3">
-        <v>5194</v>
+        <v>4711</v>
       </c>
       <c r="F12" s="3">
-        <v>299</v>
+        <v>387</v>
       </c>
       <c r="G12" s="3">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1092,33 +1092,33 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
       <c r="E13" s="3">
-        <v>110</v>
+        <v>5083</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
+        <v>594</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1130,30 +1130,30 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3">
-        <v>5083</v>
+        <v>3021</v>
       </c>
       <c r="F14" s="3">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G14" s="3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1162,33 +1162,33 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
       <c r="E15" s="3">
-        <v>5563</v>
+        <v>7431</v>
       </c>
       <c r="F15" s="3">
-        <v>265</v>
+        <v>661</v>
       </c>
       <c r="G15" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1197,33 +1197,33 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
       <c r="E16" s="3">
-        <v>1593</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1235,31 +1235,31 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" s="3">
+        <v>3716</v>
+      </c>
+      <c r="F17" s="3">
+        <v>426</v>
+      </c>
+      <c r="G17" s="3">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="3">
-        <v>113046</v>
-      </c>
-      <c r="F17" s="3">
-        <v>8422</v>
-      </c>
-      <c r="G17" s="3">
-        <v>83</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1267,33 +1267,33 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
         <v>65</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
       <c r="E18" s="3">
-        <v>7161</v>
+        <v>113046</v>
       </c>
       <c r="F18" s="3">
-        <v>836</v>
+        <v>8422</v>
       </c>
       <c r="G18" s="3">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1302,33 +1302,33 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
       <c r="E19" s="3">
-        <v>4899</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1337,33 +1337,33 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
         <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3">
-        <v>7431</v>
+        <v>7161</v>
       </c>
       <c r="F20" s="3">
-        <v>661</v>
+        <v>836</v>
       </c>
       <c r="G20" s="3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1372,31 +1372,31 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
       <c r="E21" s="3">
+        <v>110</v>
+      </c>
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
@@ -1410,30 +1410,30 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
       <c r="E22" s="3">
-        <v>5962</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1442,33 +1442,33 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
       <c r="E23" s="3">
-        <v>3716</v>
+        <v>151373</v>
       </c>
       <c r="F23" s="3">
-        <v>426</v>
+        <v>10158</v>
       </c>
       <c r="G23" s="3">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1477,33 +1477,33 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>86</v>
-      </c>
       <c r="E24" s="3">
-        <v>6</v>
+        <v>126844</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>8977</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1512,33 +1512,33 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
         <v>87</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>88</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="3">
-        <v>4711</v>
+        <v>5194</v>
       </c>
       <c r="F25" s="3">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="G25" s="3">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1547,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1561,19 +1561,19 @@
         <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
         <v>92</v>
       </c>
       <c r="E26" s="3">
-        <v>151373</v>
+        <v>5563</v>
       </c>
       <c r="F26" s="3">
-        <v>10158</v>
+        <v>265</v>
       </c>
       <c r="G26" s="3">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1596,19 +1596,19 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="3">
-        <v>126844</v>
+        <v>13154</v>
       </c>
       <c r="F27" s="3">
-        <v>8977</v>
+        <v>1256</v>
       </c>
       <c r="G27" s="3">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1617,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1637,13 +1637,13 @@
         <v>98</v>
       </c>
       <c r="E28" s="3">
-        <v>2848</v>
+        <v>5962</v>
       </c>
       <c r="F28" s="3">
-        <v>523</v>
+        <v>765</v>
       </c>
       <c r="G28" s="3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="L28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1666,19 +1666,19 @@
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
         <v>101</v>
       </c>
       <c r="E29" s="3">
-        <v>5</v>
+        <v>1593</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1707,13 +1707,13 @@
         <v>104</v>
       </c>
       <c r="E30" s="3">
-        <v>13154</v>
+        <v>2848</v>
       </c>
       <c r="F30" s="3">
-        <v>1256</v>
+        <v>523</v>
       </c>
       <c r="G30" s="3">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -1722,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>45</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>19</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t>URL</t>
   </si>
@@ -68,6 +68,48 @@
     <t>['Franjo']</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
   </si>
   <si>
@@ -77,19 +119,13 @@
     <t>2019-07-15T15:45:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
@@ -101,57 +137,102 @@
     <t>2019-10-14T15:30:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RKISl_AKqLg</t>
-  </si>
-  <si>
-    <t>ADP - RIC - Procès des dirigeants -  précisions</t>
-  </si>
-  <si>
-    <t>Demo Sophie</t>
-  </si>
-  <si>
-    <t>2019-12-03T11:35:37.000Z</t>
+    <t>https://www.youtube.com/watch?v=ZZJhZ2yI4yA</t>
+  </si>
+  <si>
+    <t>Les malaises #3 - Avec Mathieu Madénian</t>
+  </si>
+  <si>
+    <t>2019-11-25T17:00:08.000Z</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
+  </si>
+  <si>
+    <t>Les voyageurs relous - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-12-09T17:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
   </si>
   <si>
@@ -161,118 +242,13 @@
     <t>2019-06-12T18:00:03.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-eu3ZRWdFKI</t>
-  </si>
-  <si>
-    <t>Philosophons sur l'égo</t>
-  </si>
-  <si>
-    <t>2019-11-28T19:28:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_HYW_NDXILY</t>
-  </si>
-  <si>
-    <t>Message personnel à M.Macron</t>
-  </si>
-  <si>
-    <t>2019-12-01T10:25:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZZJhZ2yI4yA</t>
-  </si>
-  <si>
-    <t>Les malaises #3 - Avec Mathieu Madénian</t>
-  </si>
-  <si>
-    <t>2019-11-25T17:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
@@ -281,55 +257,7 @@
     <t>besancenot : " une  partie du pays dit non a macron il a pas l'habitude"</t>
   </si>
   <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
     <t>2019-11-22T03:31:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
-  </si>
-  <si>
-    <t>Le cadeau de la France à tous les peuples du monde</t>
-  </si>
-  <si>
-    <t>2019-12-25T15:53:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -690,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -791,19 +719,19 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>18665</v>
+      </c>
+      <c r="F4" s="3">
+        <v>659</v>
+      </c>
+      <c r="G4" s="3">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3">
-        <v>566966</v>
-      </c>
-      <c r="F4" s="3">
-        <v>18782</v>
-      </c>
-      <c r="G4" s="3">
-        <v>416</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -812,33 +740,33 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>298</v>
+        <v>109</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>18665</v>
+        <v>24890</v>
       </c>
       <c r="F5" s="3">
-        <v>659</v>
+        <v>1321</v>
       </c>
       <c r="G5" s="3">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -847,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -861,19 +789,19 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>472979</v>
+        <v>69498</v>
       </c>
       <c r="F6" s="3">
-        <v>20185</v>
+        <v>1189</v>
       </c>
       <c r="G6" s="3">
-        <v>515</v>
+        <v>45</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -882,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -896,19 +824,19 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>69498</v>
+        <v>4183126</v>
       </c>
       <c r="F7" s="3">
-        <v>1189</v>
+        <v>49430</v>
       </c>
       <c r="G7" s="3">
-        <v>45</v>
+        <v>5701</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -917,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>220</v>
+        <v>1196</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -937,13 +865,13 @@
         <v>33</v>
       </c>
       <c r="E8" s="3">
-        <v>222595</v>
+        <v>566966</v>
       </c>
       <c r="F8" s="3">
-        <v>9022</v>
+        <v>18782</v>
       </c>
       <c r="G8" s="3">
-        <v>147</v>
+        <v>416</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -952,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -972,13 +900,13 @@
         <v>36</v>
       </c>
       <c r="E9" s="3">
-        <v>4183126</v>
+        <v>222595</v>
       </c>
       <c r="F9" s="3">
-        <v>49430</v>
+        <v>9022</v>
       </c>
       <c r="G9" s="3">
-        <v>5701</v>
+        <v>147</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -987,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1196</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -1001,19 +929,19 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="3">
-        <v>24890</v>
+        <v>472979</v>
       </c>
       <c r="F10" s="3">
-        <v>1321</v>
+        <v>20185</v>
       </c>
       <c r="G10" s="3">
-        <v>34</v>
+        <v>515</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -1022,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>154</v>
+        <v>260</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1036,19 +964,19 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
       <c r="E11" s="3">
-        <v>4899</v>
+        <v>151373</v>
       </c>
       <c r="F11" s="3">
-        <v>603</v>
+        <v>10158</v>
       </c>
       <c r="G11" s="3">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1057,33 +985,33 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="3">
-        <v>4711</v>
+        <v>5563</v>
       </c>
       <c r="F12" s="3">
-        <v>387</v>
+        <v>265</v>
       </c>
       <c r="G12" s="3">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1092,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1106,19 +1034,19 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3">
-        <v>5083</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1130,30 +1058,30 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3">
-        <v>3021</v>
+        <v>113046</v>
       </c>
       <c r="F14" s="3">
-        <v>580</v>
+        <v>8422</v>
       </c>
       <c r="G14" s="3">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1162,33 +1090,33 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3">
-        <v>7431</v>
+        <v>126844</v>
       </c>
       <c r="F15" s="3">
-        <v>661</v>
+        <v>8977</v>
       </c>
       <c r="G15" s="3">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1197,27 +1125,27 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -1235,30 +1163,30 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3">
-        <v>3716</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1267,33 +1195,33 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3">
-        <v>113046</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3">
-        <v>8422</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1302,30 +1230,30 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" s="3">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -1340,30 +1268,30 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E20" s="3">
-        <v>7161</v>
+        <v>4711</v>
       </c>
       <c r="F20" s="3">
-        <v>836</v>
+        <v>387</v>
       </c>
       <c r="G20" s="3">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1372,30 +1300,30 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="3">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1410,30 +1338,30 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>5194</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1442,290 +1370,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="3">
-        <v>151373</v>
-      </c>
-      <c r="F23" s="3">
-        <v>10158</v>
-      </c>
-      <c r="G23" s="3">
-        <v>240</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>133</v>
-      </c>
-      <c r="L23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="3">
-        <v>126844</v>
-      </c>
-      <c r="F24" s="3">
-        <v>8977</v>
-      </c>
-      <c r="G24" s="3">
-        <v>198</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>66</v>
-      </c>
-      <c r="L24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5194</v>
-      </c>
-      <c r="F25" s="3">
-        <v>299</v>
-      </c>
-      <c r="G25" s="3">
-        <v>13</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>83</v>
-      </c>
-      <c r="L25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="3">
-        <v>5563</v>
-      </c>
-      <c r="F26" s="3">
-        <v>265</v>
-      </c>
-      <c r="G26" s="3">
-        <v>13</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>28</v>
-      </c>
-      <c r="L26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="3">
-        <v>13154</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1256</v>
-      </c>
-      <c r="G27" s="3">
-        <v>38</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>143</v>
-      </c>
-      <c r="L27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="3">
-        <v>5962</v>
-      </c>
-      <c r="F28" s="3">
-        <v>765</v>
-      </c>
-      <c r="G28" s="3">
         <v>21</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>103</v>
-      </c>
-      <c r="L28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1593</v>
-      </c>
-      <c r="F29" s="3">
-        <v>331</v>
-      </c>
-      <c r="G29" s="3">
-        <v>6</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2848</v>
-      </c>
-      <c r="F30" s="3">
-        <v>523</v>
-      </c>
-      <c r="G30" s="3">
-        <v>11</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1750,14 +1398,6 @@
     <hyperlink ref="A20" r:id="rId18"/>
     <hyperlink ref="A21" r:id="rId19"/>
     <hyperlink ref="A22" r:id="rId20"/>
-    <hyperlink ref="A23" r:id="rId21"/>
-    <hyperlink ref="A24" r:id="rId22"/>
-    <hyperlink ref="A25" r:id="rId23"/>
-    <hyperlink ref="A26" r:id="rId24"/>
-    <hyperlink ref="A27" r:id="rId25"/>
-    <hyperlink ref="A28" r:id="rId26"/>
-    <hyperlink ref="A29" r:id="rId27"/>
-    <hyperlink ref="A30" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1785,31 +1425,31 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B2">
-        <v>26578</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1817,7 +1457,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
   <si>
     <t>URL</t>
   </si>
@@ -53,90 +53,132 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>Franjo</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
+  </si>
+  <si>
+    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-09T15:30:03.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=T5_TMy-Vung</t>
+  </si>
+  <si>
+    <t>Gilets Jaunes et dégénérescence des élites gauchistes. 27.11.2019</t>
+  </si>
+  <si>
+    <t>2019-11-28T17:39:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
   </si>
   <si>
     <t>Le crevard #5</t>
   </si>
   <si>
-    <t>Franjo</t>
-  </si>
-  <si>
     <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=ZZJhZ2yI4yA</t>
   </si>
   <si>
@@ -146,19 +188,64 @@
     <t>2019-11-25T17:00:08.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le conservatisme ? 05.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T17:30:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
+  </si>
+  <si>
+    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:20:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
@@ -167,12 +254,27 @@
     <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
   </si>
   <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
     <t>2019-12-12T13:19:08.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
   </si>
   <si>
@@ -182,13 +284,43 @@
     <t>2019-12-09T17:00:07.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
+  </si>
+  <si>
+    <t>La crise bolivienne. 02.12.2019.</t>
+  </si>
+  <si>
+    <t>2019-12-02T17:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
@@ -197,67 +329,7 @@
     <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
   </si>
   <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
     <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tRtaLhTM6F0</t>
-  </si>
-  <si>
-    <t>besancenot : " une  partie du pays dit non a macron il a pas l'habitude"</t>
-  </si>
-  <si>
-    <t>2019-11-22T03:31:47.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -618,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,13 +762,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>511312</v>
+        <v>222595</v>
       </c>
       <c r="F3" s="3">
-        <v>15167</v>
+        <v>9022</v>
       </c>
       <c r="G3" s="3">
-        <v>402</v>
+        <v>147</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -705,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -725,13 +797,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>18665</v>
+        <v>4463</v>
       </c>
       <c r="F4" s="3">
-        <v>659</v>
+        <v>211</v>
       </c>
       <c r="G4" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -740,24 +812,24 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3">
         <v>24890</v>
@@ -778,30 +850,30 @@
         <v>154</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3">
-        <v>69498</v>
+        <v>3484</v>
       </c>
       <c r="F6" s="3">
-        <v>1189</v>
+        <v>224</v>
       </c>
       <c r="G6" s="3">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -810,33 +882,33 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>4183126</v>
+        <v>13867</v>
       </c>
       <c r="F7" s="3">
-        <v>49430</v>
+        <v>934</v>
       </c>
       <c r="G7" s="3">
-        <v>5701</v>
+        <v>17</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -845,33 +917,33 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1196</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3">
-        <v>566966</v>
+        <v>4183126</v>
       </c>
       <c r="F8" s="3">
-        <v>18782</v>
+        <v>49430</v>
       </c>
       <c r="G8" s="3">
-        <v>416</v>
+        <v>5701</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -880,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>298</v>
+        <v>1196</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -888,25 +960,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3">
-        <v>222595</v>
+        <v>15248</v>
       </c>
       <c r="F9" s="3">
-        <v>9022</v>
+        <v>950</v>
       </c>
       <c r="G9" s="3">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -915,33 +987,33 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>130</v>
+        <v>324</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3">
-        <v>472979</v>
+        <v>566966</v>
       </c>
       <c r="F10" s="3">
-        <v>20185</v>
+        <v>18782</v>
       </c>
       <c r="G10" s="3">
-        <v>515</v>
+        <v>416</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -950,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -958,72 +1030,72 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3">
+        <v>18665</v>
+      </c>
+      <c r="F11" s="3">
+        <v>659</v>
+      </c>
+      <c r="G11" s="3">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="3">
-        <v>151373</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10158</v>
-      </c>
-      <c r="G11" s="3">
-        <v>240</v>
-      </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="3">
-        <v>5563</v>
+        <v>472979</v>
       </c>
       <c r="F12" s="3">
-        <v>265</v>
+        <v>20185</v>
       </c>
       <c r="G12" s="3">
-        <v>13</v>
+        <v>515</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>28</v>
+        <v>260</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1034,89 +1106,89 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>69498</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3">
-        <v>113046</v>
+        <v>511312</v>
       </c>
       <c r="F14" s="3">
-        <v>8422</v>
+        <v>15167</v>
       </c>
       <c r="G14" s="3">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3">
-        <v>126844</v>
+        <v>151373</v>
       </c>
       <c r="F15" s="3">
-        <v>8977</v>
+        <v>10158</v>
       </c>
       <c r="G15" s="3">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1125,27 +1197,27 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>60</v>
       </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
       <c r="E16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -1163,30 +1235,30 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>826</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1195,21 +1267,21 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
         <v>65</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
@@ -1233,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1244,19 +1316,19 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
       <c r="E19" s="3">
-        <v>110</v>
+        <v>4358</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1265,33 +1337,33 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
         <v>72</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="3">
-        <v>4711</v>
+        <v>5854</v>
       </c>
       <c r="F20" s="3">
-        <v>387</v>
+        <v>555</v>
       </c>
       <c r="G20" s="3">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1300,27 +1372,27 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1338,42 +1410,322 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="3">
-        <v>5194</v>
-      </c>
-      <c r="F22" s="3">
-        <v>299</v>
-      </c>
-      <c r="G22" s="3">
-        <v>13</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4711</v>
+      </c>
+      <c r="F23" s="3">
+        <v>387</v>
+      </c>
+      <c r="G23" s="3">
+        <v>38</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>97</v>
+      </c>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L22" t="s">
-        <v>21</v>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="3">
+        <v>126844</v>
+      </c>
+      <c r="F24" s="3">
+        <v>8977</v>
+      </c>
+      <c r="G24" s="3">
+        <v>198</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>66</v>
+      </c>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="3">
+        <v>113046</v>
+      </c>
+      <c r="F25" s="3">
+        <v>8422</v>
+      </c>
+      <c r="G25" s="3">
+        <v>83</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>61</v>
+      </c>
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5880</v>
+      </c>
+      <c r="F26" s="3">
+        <v>594</v>
+      </c>
+      <c r="G26" s="3">
+        <v>9</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>89</v>
+      </c>
+      <c r="L26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2418</v>
+      </c>
+      <c r="F27" s="3">
+        <v>264</v>
+      </c>
+      <c r="G27" s="3">
+        <v>14</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4508</v>
+      </c>
+      <c r="F28" s="3">
+        <v>446</v>
+      </c>
+      <c r="G28" s="3">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1398,6 +1750,14 @@
     <hyperlink ref="A20" r:id="rId18"/>
     <hyperlink ref="A21" r:id="rId19"/>
     <hyperlink ref="A22" r:id="rId20"/>
+    <hyperlink ref="A23" r:id="rId21"/>
+    <hyperlink ref="A24" r:id="rId22"/>
+    <hyperlink ref="A25" r:id="rId23"/>
+    <hyperlink ref="A26" r:id="rId24"/>
+    <hyperlink ref="A27" r:id="rId25"/>
+    <hyperlink ref="A28" r:id="rId26"/>
+    <hyperlink ref="A29" r:id="rId27"/>
+    <hyperlink ref="A30" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1420,28 +1780,28 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>126844</v>
+        <v>56868</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>9889</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1449,7 +1809,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1457,7 +1817,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -68,22 +68,52 @@
     <t>['Franjo']</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
   </si>
   <si>
     <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
   </si>
   <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
     <t>2019-12-09T15:30:03.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
@@ -92,19 +122,43 @@
     <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
   </si>
   <si>
-    <t>wat ari</t>
-  </si>
-  <si>
     <t>2018-01-03T19:07:26.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
+    <t>https://www.youtube.com/watch?v=T5_TMy-Vung</t>
+  </si>
+  <si>
+    <t>Gilets Jaunes et dégénérescence des élites gauchistes. 27.11.2019</t>
+  </si>
+  <si>
+    <t>2019-11-28T17:39:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
@@ -125,58 +179,82 @@
     <t>2017-02-21T16:23:47.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=T5_TMy-Vung</t>
-  </si>
-  <si>
-    <t>Gilets Jaunes et dégénérescence des élites gauchistes. 27.11.2019</t>
-  </si>
-  <si>
-    <t>2019-11-28T17:39:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
+  </si>
+  <si>
+    <t>La crise bolivienne. 02.12.2019.</t>
+  </si>
+  <si>
+    <t>2019-12-02T17:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
+  </si>
+  <si>
+    <t>Les voyageurs relous - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-12-09T17:00:07.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ZZJhZ2yI4yA</t>
@@ -188,16 +266,34 @@
     <t>2019-11-25T17:00:08.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
@@ -209,27 +305,6 @@
     <t>2019-12-05T17:30:01.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
   </si>
   <si>
@@ -239,6 +314,15 @@
     <t>2019-12-06T20:20:06.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
   </si>
   <si>
@@ -246,90 +330,6 @@
   </si>
   <si>
     <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
-  </si>
-  <si>
-    <t>La crise bolivienne. 02.12.2019.</t>
-  </si>
-  <si>
-    <t>2019-12-02T17:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -797,13 +797,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>4463</v>
+        <v>3484</v>
       </c>
       <c r="F4" s="3">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G4" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -826,19 +826,19 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" s="3">
-        <v>24890</v>
+        <v>4463</v>
       </c>
       <c r="F5" s="3">
-        <v>1321</v>
+        <v>211</v>
       </c>
       <c r="G5" s="3">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
@@ -855,25 +855,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="3">
-        <v>3484</v>
+        <v>69498</v>
       </c>
       <c r="F6" s="3">
-        <v>224</v>
+        <v>1189</v>
       </c>
       <c r="G6" s="3">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="L6" t="s">
         <v>22</v>
@@ -896,19 +896,19 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>13867</v>
+        <v>511312</v>
       </c>
       <c r="F7" s="3">
-        <v>934</v>
+        <v>15167</v>
       </c>
       <c r="G7" s="3">
-        <v>17</v>
+        <v>402</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -931,19 +931,19 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="3">
-        <v>4183126</v>
+        <v>24890</v>
       </c>
       <c r="F8" s="3">
-        <v>49430</v>
+        <v>1321</v>
       </c>
       <c r="G8" s="3">
-        <v>5701</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1196</v>
+        <v>154</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1007,13 +1007,13 @@
         <v>41</v>
       </c>
       <c r="E10" s="3">
-        <v>566966</v>
+        <v>472979</v>
       </c>
       <c r="F10" s="3">
-        <v>18782</v>
+        <v>20185</v>
       </c>
       <c r="G10" s="3">
-        <v>416</v>
+        <v>515</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1036,7 +1036,7 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -1077,13 +1077,13 @@
         <v>47</v>
       </c>
       <c r="E12" s="3">
-        <v>472979</v>
+        <v>566966</v>
       </c>
       <c r="F12" s="3">
-        <v>20185</v>
+        <v>18782</v>
       </c>
       <c r="G12" s="3">
-        <v>515</v>
+        <v>416</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1106,19 +1106,19 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="3">
-        <v>69498</v>
+        <v>13867</v>
       </c>
       <c r="F13" s="3">
-        <v>1189</v>
+        <v>934</v>
       </c>
       <c r="G13" s="3">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
         <v>22</v>
@@ -1147,13 +1147,13 @@
         <v>53</v>
       </c>
       <c r="E14" s="3">
-        <v>511312</v>
+        <v>4183126</v>
       </c>
       <c r="F14" s="3">
-        <v>15167</v>
+        <v>49430</v>
       </c>
       <c r="G14" s="3">
-        <v>402</v>
+        <v>5701</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>201</v>
+        <v>1196</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1176,19 +1176,19 @@
         <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="3">
-        <v>151373</v>
+        <v>4358</v>
       </c>
       <c r="F15" s="3">
-        <v>10158</v>
+        <v>230</v>
       </c>
       <c r="G15" s="3">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
         <v>22</v>
@@ -1217,7 +1217,7 @@
         <v>60</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -1252,13 +1252,13 @@
         <v>63</v>
       </c>
       <c r="E17" s="3">
-        <v>826</v>
+        <v>5880</v>
       </c>
       <c r="F17" s="3">
-        <v>129</v>
+        <v>594</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s">
         <v>22</v>
@@ -1287,7 +1287,7 @@
         <v>67</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1322,13 +1322,13 @@
         <v>70</v>
       </c>
       <c r="E19" s="3">
-        <v>4358</v>
+        <v>4508</v>
       </c>
       <c r="F19" s="3">
-        <v>230</v>
+        <v>446</v>
       </c>
       <c r="G19" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
         <v>22</v>
@@ -1351,19 +1351,19 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="E20" s="3">
-        <v>5854</v>
+        <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>22</v>
@@ -1386,19 +1386,19 @@
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>2418</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L21" t="s">
         <v>22</v>
@@ -1421,19 +1421,19 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>79</v>
       </c>
       <c r="E22" s="3">
-        <v>5</v>
+        <v>113046</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>8422</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="L22" t="s">
         <v>22</v>
@@ -1456,19 +1456,19 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
         <v>82</v>
       </c>
       <c r="E23" s="3">
-        <v>4711</v>
+        <v>151373</v>
       </c>
       <c r="F23" s="3">
-        <v>387</v>
+        <v>10158</v>
       </c>
       <c r="G23" s="3">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s">
         <v>22</v>
@@ -1526,19 +1526,19 @@
         <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
         <v>88</v>
       </c>
       <c r="E25" s="3">
-        <v>113046</v>
+        <v>4711</v>
       </c>
       <c r="F25" s="3">
-        <v>8422</v>
+        <v>387</v>
       </c>
       <c r="G25" s="3">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="L25" t="s">
         <v>22</v>
@@ -1561,19 +1561,19 @@
         <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" s="3">
-        <v>5880</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
         <v>22</v>
@@ -1590,25 +1590,25 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" s="3">
-        <v>2418</v>
+        <v>826</v>
       </c>
       <c r="F27" s="3">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="G27" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L27" t="s">
         <v>22</v>
@@ -1625,34 +1625,34 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E28" s="3">
-        <v>4508</v>
+        <v>5854</v>
       </c>
       <c r="F28" s="3">
-        <v>446</v>
+        <v>555</v>
       </c>
       <c r="G28" s="3">
+        <v>12</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>8</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>24</v>
       </c>
       <c r="L28" t="s">
         <v>22</v>
@@ -1660,19 +1660,19 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
         <v>101</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
         <v>104</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>URL</t>
   </si>
@@ -53,19 +53,31 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>Franjo</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
+    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
+  </si>
+  <si>
+    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-09T15:30:03.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
@@ -74,109 +86,25 @@
     <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
   </si>
   <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
     <t>2019-12-20T18:05:05.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
-  </si>
-  <si>
-    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T15:30:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=T5_TMy-Vung</t>
-  </si>
-  <si>
-    <t>Gilets Jaunes et dégénérescence des élites gauchistes. 27.11.2019</t>
-  </si>
-  <si>
-    <t>2019-11-28T17:39:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
+    <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
+  </si>
+  <si>
+    <t>La crise bolivienne. 02.12.2019.</t>
+  </si>
+  <si>
+    <t>2019-12-02T17:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le conservatisme ? 05.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T17:30:01.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
@@ -188,100 +116,160 @@
     <t>2019-12-12T15:30:02.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
+  </si>
+  <si>
+    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-03T16:00:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_ytITzHCuRw</t>
+  </si>
+  <si>
+    <t>Les mille et un costumes de Simon Abkarian | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-11-28T16:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
+  </si>
+  <si>
+    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:20:06.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
   </si>
   <si>
     <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
   </si>
   <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
     <t>2019-07-17T12:45:54.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
-  </si>
-  <si>
-    <t>La crise bolivienne. 02.12.2019.</t>
-  </si>
-  <si>
-    <t>2019-12-02T17:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZZJhZ2yI4yA</t>
-  </si>
-  <si>
-    <t>Les malaises #3 - Avec Mathieu Madénian</t>
-  </si>
-  <si>
-    <t>2019-11-25T17:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
+    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
+  </si>
+  <si>
+    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-07T09:00:10.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
@@ -290,37 +278,7 @@
     <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
   </si>
   <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
     <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le conservatisme ? 05.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T17:30:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
-  </si>
-  <si>
-    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:20:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
@@ -690,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,13 +720,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>222595</v>
+        <v>4463</v>
       </c>
       <c r="F3" s="3">
-        <v>9022</v>
+        <v>211</v>
       </c>
       <c r="G3" s="3">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -777,33 +735,33 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>3484</v>
+        <v>13867</v>
       </c>
       <c r="F4" s="3">
-        <v>224</v>
+        <v>934</v>
       </c>
       <c r="G4" s="3">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -812,33 +770,33 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" s="3">
-        <v>4463</v>
+        <v>3484</v>
       </c>
       <c r="F5" s="3">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G5" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -847,348 +805,348 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="3">
-        <v>69498</v>
+        <v>2418</v>
       </c>
       <c r="F6" s="3">
-        <v>1189</v>
+        <v>264</v>
       </c>
       <c r="G6" s="3">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3">
-        <v>511312</v>
+        <v>826</v>
       </c>
       <c r="F7" s="3">
-        <v>15167</v>
+        <v>129</v>
       </c>
       <c r="G7" s="3">
-        <v>402</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3">
-        <v>24890</v>
+        <v>4358</v>
       </c>
       <c r="F8" s="3">
-        <v>1321</v>
+        <v>230</v>
       </c>
       <c r="G8" s="3">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
       <c r="E9" s="3">
-        <v>15248</v>
+        <v>691</v>
       </c>
       <c r="F9" s="3">
-        <v>950</v>
+        <v>13</v>
       </c>
       <c r="G9" s="3">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>324</v>
+        <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
       <c r="E10" s="3">
-        <v>472979</v>
+        <v>3</v>
       </c>
       <c r="F10" s="3">
-        <v>20185</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
       <c r="E11" s="3">
-        <v>18665</v>
+        <v>5880</v>
       </c>
       <c r="F11" s="3">
-        <v>659</v>
+        <v>594</v>
       </c>
       <c r="G11" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
       <c r="E12" s="3">
-        <v>566966</v>
+        <v>1542</v>
       </c>
       <c r="F12" s="3">
-        <v>18782</v>
+        <v>48</v>
       </c>
       <c r="G12" s="3">
-        <v>416</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>298</v>
-      </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
       <c r="E13" s="3">
-        <v>13867</v>
+        <v>1080</v>
       </c>
       <c r="F13" s="3">
-        <v>934</v>
+        <v>40</v>
       </c>
       <c r="G13" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
         <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3">
-        <v>4183126</v>
+        <v>4508</v>
       </c>
       <c r="F14" s="3">
-        <v>49430</v>
+        <v>446</v>
       </c>
       <c r="G14" s="3">
-        <v>5701</v>
+        <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1196</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
       <c r="E15" s="3">
-        <v>4358</v>
+        <v>1386</v>
       </c>
       <c r="F15" s="3">
-        <v>230</v>
+        <v>47</v>
       </c>
       <c r="G15" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1197,33 +1155,33 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
       <c r="E16" s="3">
-        <v>6</v>
+        <v>357</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1235,30 +1193,30 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
         <v>61</v>
       </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
-      </c>
       <c r="E17" s="3">
-        <v>5880</v>
+        <v>431</v>
       </c>
       <c r="F17" s="3">
-        <v>594</v>
+        <v>8</v>
       </c>
       <c r="G17" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1267,27 +1225,27 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
         <v>64</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1305,30 +1263,30 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
       <c r="E19" s="3">
-        <v>4508</v>
+        <v>346</v>
       </c>
       <c r="F19" s="3">
-        <v>446</v>
+        <v>16</v>
       </c>
       <c r="G19" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1337,24 +1295,24 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
         <v>71</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
       </c>
       <c r="E20" s="3">
         <v>5</v>
@@ -1375,30 +1333,30 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
       <c r="E21" s="3">
-        <v>2418</v>
+        <v>575</v>
       </c>
       <c r="F21" s="3">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="G21" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1407,33 +1365,33 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
         <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="3">
-        <v>113046</v>
+        <v>5854</v>
       </c>
       <c r="F22" s="3">
-        <v>8422</v>
+        <v>555</v>
       </c>
       <c r="G22" s="3">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1442,33 +1400,33 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="L22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
         <v>80</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
         <v>81</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
       <c r="E23" s="3">
-        <v>151373</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
-        <v>10158</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1477,33 +1435,33 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
         <v>84</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
       <c r="E24" s="3">
-        <v>126844</v>
+        <v>541</v>
       </c>
       <c r="F24" s="3">
-        <v>8977</v>
+        <v>22</v>
       </c>
       <c r="G24" s="3">
-        <v>198</v>
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1512,33 +1470,33 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
         <v>87</v>
       </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
       <c r="E25" s="3">
-        <v>4711</v>
+        <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1547,27 +1505,27 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
         <v>89</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
         <v>90</v>
       </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
-      </c>
       <c r="E26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1585,147 +1543,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="3">
-        <v>826</v>
-      </c>
-      <c r="F27" s="3">
-        <v>129</v>
-      </c>
-      <c r="G27" s="3">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>24</v>
-      </c>
-      <c r="L27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="3">
-        <v>5854</v>
-      </c>
-      <c r="F28" s="3">
-        <v>555</v>
-      </c>
-      <c r="G28" s="3">
-        <v>12</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>8</v>
-      </c>
-      <c r="L28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="3">
-        <v>2</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1754,10 +1572,6 @@
     <hyperlink ref="A24" r:id="rId22"/>
     <hyperlink ref="A25" r:id="rId23"/>
     <hyperlink ref="A26" r:id="rId24"/>
-    <hyperlink ref="A27" r:id="rId25"/>
-    <hyperlink ref="A28" r:id="rId26"/>
-    <hyperlink ref="A29" r:id="rId27"/>
-    <hyperlink ref="A30" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1765,7 +1579,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1780,28 +1594,28 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>56868</v>
+        <v>7571</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B2">
-        <v>9889</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1809,17 +1623,9 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -53,42 +53,42 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
   </si>
   <si>
     <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
   </si>
   <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
     <t>2019-12-09T15:30:03.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
   </si>
   <si>
@@ -98,6 +98,189 @@
     <t>2019-12-02T17:30:00.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_ytITzHCuRw</t>
+  </si>
+  <si>
+    <t>Les mille et un costumes de Simon Abkarian | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-11-28T16:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
+  </si>
+  <si>
+    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-07T09:00:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
+  </si>
+  <si>
+    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-03T16:00:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
+  </si>
+  <si>
+    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:20:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
   </si>
   <si>
@@ -105,189 +288,6 @@
   </si>
   <si>
     <t>2019-12-05T17:30:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
-  </si>
-  <si>
-    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-03T16:00:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_ytITzHCuRw</t>
-  </si>
-  <si>
-    <t>Les mille et un costumes de Simon Abkarian | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-11-28T16:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
-  </si>
-  <si>
-    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:20:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
-  </si>
-  <si>
-    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-07T09:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -720,13 +720,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>4463</v>
+        <v>3484</v>
       </c>
       <c r="F3" s="3">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G3" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -790,13 +790,13 @@
         <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>3484</v>
+        <v>4463</v>
       </c>
       <c r="F5" s="3">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G5" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -860,13 +860,13 @@
         <v>29</v>
       </c>
       <c r="E7" s="3">
-        <v>826</v>
+        <v>4508</v>
       </c>
       <c r="F7" s="3">
-        <v>129</v>
+        <v>446</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -889,19 +889,19 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3">
-        <v>4358</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -918,25 +918,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>691</v>
+        <v>431</v>
       </c>
       <c r="F9" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -953,19 +953,19 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -994,19 +994,19 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3">
-        <v>5880</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -1023,25 +1023,25 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3">
-        <v>1542</v>
+        <v>691</v>
       </c>
       <c r="F12" s="3">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1058,25 +1058,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3">
-        <v>1080</v>
+        <v>5880</v>
       </c>
       <c r="F13" s="3">
-        <v>40</v>
+        <v>594</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1093,25 +1093,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3">
-        <v>4508</v>
+        <v>1542</v>
       </c>
       <c r="F14" s="3">
-        <v>446</v>
+        <v>48</v>
       </c>
       <c r="G14" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3">
         <v>1386</v>
@@ -1163,34 +1163,34 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3">
-        <v>357</v>
+        <v>541</v>
       </c>
       <c r="F16" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1198,22 +1198,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3">
-        <v>431</v>
+        <v>575</v>
       </c>
       <c r="F17" s="3">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1233,25 +1233,25 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>65</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>4358</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -1274,16 +1274,16 @@
         <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
       </c>
       <c r="E19" s="3">
-        <v>346</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1309,16 +1309,16 @@
         <v>70</v>
       </c>
       <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>1080</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1338,25 +1338,25 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
         <v>73</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
       <c r="E21" s="3">
-        <v>575</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
@@ -1373,25 +1373,25 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
         <v>77</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
       <c r="E22" s="3">
-        <v>5854</v>
+        <v>346</v>
       </c>
       <c r="F22" s="3">
-        <v>555</v>
+        <v>16</v>
       </c>
       <c r="G22" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
@@ -1408,19 +1408,19 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
         <v>79</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1449,19 +1449,19 @@
         <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="3">
-        <v>541</v>
+        <v>5854</v>
       </c>
       <c r="F24" s="3">
-        <v>22</v>
+        <v>555</v>
       </c>
       <c r="G24" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
@@ -1484,19 +1484,19 @@
         <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>87</v>
       </c>
       <c r="E25" s="3">
+        <v>357</v>
+      </c>
+      <c r="F25" s="3">
+        <v>13</v>
+      </c>
+      <c r="G25" s="3">
         <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1519,19 +1519,19 @@
         <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>90</v>
       </c>
       <c r="E26" s="3">
-        <v>2</v>
+        <v>826</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1386</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="128">
   <si>
     <t>URL</t>
   </si>
@@ -71,6 +71,30 @@
     <t>[]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
+  </si>
+  <si>
+    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
+  </si>
+  <si>
+    <t>JEAN-LUC MÉLENCHON</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:54:39.000Z</t>
+  </si>
+  <si>
+    <t>['JEAN-LUC MÉLENCHON']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
+  </si>
+  <si>
+    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T15:30:03.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
   </si>
   <si>
@@ -80,13 +104,22 @@
     <t>2019-12-23T17:23:54.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
-  </si>
-  <si>
-    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T15:30:03.000Z</t>
+    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
+  </si>
+  <si>
+    <t>RETRAITES : Le ras-le-bol est général.</t>
+  </si>
+  <si>
+    <t>2019-12-22T19:50:20.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
+  </si>
+  <si>
+    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
+  </si>
+  <si>
+    <t>2019-12-19T18:27:32.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
@@ -98,6 +131,159 @@
     <t>2019-12-02T17:30:00.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
+  </si>
+  <si>
+    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:20:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lyh0CAZY4VM</t>
+  </si>
+  <si>
+    <t>«C'est un jugement politique» - Mélenchon après le jugement à Bobigny</t>
+  </si>
+  <si>
+    <t>2019-12-09T10:30:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
+  </si>
+  <si>
+    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:06:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
+  </si>
+  <si>
+    <t>Retraites : je souhaite que Macron connaisse un échec</t>
+  </si>
+  <si>
+    <t>2019-12-04T07:52:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
+  </si>
+  <si>
+    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-07T09:00:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
+  </si>
+  <si>
+    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-03T16:00:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i6iwRtzoBbo</t>
+  </si>
+  <si>
+    <t>#RDLS101 - Spéciale grève du 5 décembre - EN DIRECT !</t>
+  </si>
+  <si>
+    <t>2019-12-05T19:10:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le conservatisme ? 05.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T17:30:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
+  </si>
+  <si>
+    <t>RETRAITES : «Le gouvernement doit retirer son projet»</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:01:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
   </si>
   <si>
@@ -107,187 +293,109 @@
     <t>2019-12-17T17:19:32.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
   </si>
   <si>
     <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
   </si>
   <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
     <t>2019-12-17T15:51:57.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=_ytITzHCuRw</t>
-  </si>
-  <si>
-    <t>Les mille et un costumes de Simon Abkarian | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-11-28T16:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
-  </si>
-  <si>
-    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-07T09:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
-  </si>
-  <si>
-    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-03T16:00:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
-  </si>
-  <si>
-    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:20:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le conservatisme ? 05.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T17:30:01.000Z</t>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -648,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -749,19 +857,19 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3">
-        <v>13867</v>
+        <v>23702</v>
       </c>
       <c r="F4" s="3">
-        <v>934</v>
+        <v>3315</v>
       </c>
       <c r="G4" s="3">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -770,24 +878,24 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3">
         <v>4463</v>
@@ -813,34 +921,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>2418</v>
+        <v>13867</v>
       </c>
       <c r="F6" s="3">
-        <v>264</v>
+        <v>934</v>
       </c>
       <c r="G6" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -848,95 +956,95 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>4508</v>
+        <v>85071</v>
       </c>
       <c r="F7" s="3">
-        <v>446</v>
+        <v>4248</v>
       </c>
       <c r="G7" s="3">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>24</v>
+        <v>464</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
+        <v>52652</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>7833</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>431</v>
+        <v>2418</v>
       </c>
       <c r="F9" s="3">
-        <v>8</v>
+        <v>264</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -945,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -959,19 +1067,19 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>6</v>
+        <v>4358</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -980,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -1000,7 +1108,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -1029,19 +1137,19 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="3">
-        <v>691</v>
+        <v>5880</v>
       </c>
       <c r="F12" s="3">
-        <v>13</v>
+        <v>594</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1050,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1070,13 +1178,13 @@
         <v>50</v>
       </c>
       <c r="E13" s="3">
-        <v>5880</v>
+        <v>5854</v>
       </c>
       <c r="F13" s="3">
-        <v>594</v>
+        <v>555</v>
       </c>
       <c r="G13" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1085,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1099,19 +1207,19 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="3">
-        <v>1542</v>
+        <v>35734</v>
       </c>
       <c r="F14" s="3">
-        <v>48</v>
+        <v>3785</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1120,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>1073</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1134,19 +1242,19 @@
         <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="3">
-        <v>1386</v>
+        <v>24429</v>
       </c>
       <c r="F15" s="3">
-        <v>47</v>
+        <v>2588</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1155,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>588</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1169,16 +1277,16 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3">
-        <v>541</v>
+        <v>1386</v>
       </c>
       <c r="F16" s="3">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G16" s="3">
         <v>3</v>
@@ -1190,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1198,34 +1306,34 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17" s="3">
-        <v>575</v>
+        <v>346</v>
       </c>
       <c r="F17" s="3">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1233,25 +1341,25 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3">
-        <v>4358</v>
+        <v>691</v>
       </c>
       <c r="F18" s="3">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="G18" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1260,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -1268,34 +1376,34 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3">
+        <v>90458</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5026</v>
+      </c>
+      <c r="G19" s="3">
+        <v>113</v>
+      </c>
+      <c r="H19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1303,25 +1411,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3">
-        <v>1080</v>
+        <v>541</v>
       </c>
       <c r="F20" s="3">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1330,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1338,22 +1446,22 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" s="3">
-        <v>5</v>
+        <v>1080</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1365,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
@@ -1373,25 +1481,25 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" s="3">
-        <v>346</v>
+        <v>38571</v>
       </c>
       <c r="F22" s="3">
-        <v>16</v>
+        <v>5242</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1400,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
@@ -1408,26 +1516,26 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
       </c>
       <c r="E23" s="3">
+        <v>826</v>
+      </c>
+      <c r="F23" s="3">
+        <v>129</v>
+      </c>
+      <c r="G23" s="3">
         <v>3</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1435,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
@@ -1449,19 +1557,19 @@
         <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="3">
-        <v>5854</v>
+        <v>58018</v>
       </c>
       <c r="F24" s="3">
-        <v>555</v>
+        <v>3627</v>
       </c>
       <c r="G24" s="3">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1470,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
@@ -1484,19 +1592,19 @@
         <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E25" s="3">
-        <v>357</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1513,25 +1621,25 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E26" s="3">
-        <v>826</v>
+        <v>4508</v>
       </c>
       <c r="F26" s="3">
-        <v>129</v>
+        <v>446</v>
       </c>
       <c r="G26" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1543,6 +1651,391 @@
         <v>24</v>
       </c>
       <c r="L26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="3">
+        <v>75707</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4287</v>
+      </c>
+      <c r="G28" s="3">
+        <v>108</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>628</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>106303</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4496</v>
+      </c>
+      <c r="G29" s="3">
+        <v>161</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>647</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="3">
+        <v>575</v>
+      </c>
+      <c r="F32" s="3">
+        <v>38</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1542</v>
+      </c>
+      <c r="F33" s="3">
+        <v>48</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="3">
+        <v>357</v>
+      </c>
+      <c r="F34" s="3">
+        <v>13</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2165</v>
+      </c>
+      <c r="F35" s="3">
+        <v>278</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>28</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="3">
+        <v>62509</v>
+      </c>
+      <c r="F37" s="3">
+        <v>4841</v>
+      </c>
+      <c r="G37" s="3">
+        <v>96</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>526</v>
+      </c>
+      <c r="L37" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1572,6 +2065,17 @@
     <hyperlink ref="A24" r:id="rId22"/>
     <hyperlink ref="A25" r:id="rId23"/>
     <hyperlink ref="A26" r:id="rId24"/>
+    <hyperlink ref="A27" r:id="rId25"/>
+    <hyperlink ref="A28" r:id="rId26"/>
+    <hyperlink ref="A29" r:id="rId27"/>
+    <hyperlink ref="A30" r:id="rId28"/>
+    <hyperlink ref="A31" r:id="rId29"/>
+    <hyperlink ref="A32" r:id="rId30"/>
+    <hyperlink ref="A33" r:id="rId31"/>
+    <hyperlink ref="A34" r:id="rId32"/>
+    <hyperlink ref="A35" r:id="rId33"/>
+    <hyperlink ref="A36" r:id="rId34"/>
+    <hyperlink ref="A37" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1579,7 +2083,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1591,26 +2095,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B1">
-        <v>7571</v>
+        <v>13166</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>1386</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1623,9 +2127,25 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -71,21 +71,48 @@
     <t>[]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
+  </si>
+  <si>
+    <t>RETRAITES : Le ras-le-bol est général.</t>
+  </si>
+  <si>
+    <t>JEAN-LUC MÉLENCHON</t>
+  </si>
+  <si>
+    <t>2019-12-22T19:50:20.000Z</t>
+  </si>
+  <si>
+    <t>['JEAN-LUC MÉLENCHON']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
+  </si>
+  <si>
+    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
+  </si>
+  <si>
+    <t>2019-12-19T18:27:32.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
   </si>
   <si>
     <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
   </si>
   <si>
-    <t>JEAN-LUC MÉLENCHON</t>
-  </si>
-  <si>
     <t>2019-12-18T21:54:39.000Z</t>
   </si>
   <si>
-    <t>['JEAN-LUC MÉLENCHON']</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
   </si>
   <si>
@@ -95,31 +122,85 @@
     <t>2019-12-09T15:30:03.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
-  </si>
-  <si>
-    <t>RETRAITES : Le ras-le-bol est général.</t>
-  </si>
-  <si>
-    <t>2019-12-22T19:50:20.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
-  </si>
-  <si>
-    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
-  </si>
-  <si>
-    <t>2019-12-19T18:27:32.000Z</t>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
+  </si>
+  <si>
+    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-03T16:00:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
+  </si>
+  <si>
+    <t>RETRAITES : «Le gouvernement doit retirer son projet»</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:01:54.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
@@ -131,13 +212,142 @@
     <t>2019-12-02T17:30:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
+  </si>
+  <si>
+    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:20:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le conservatisme ? 05.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T17:30:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i6iwRtzoBbo</t>
+  </si>
+  <si>
+    <t>#RDLS101 - Spéciale grève du 5 décembre - EN DIRECT !</t>
+  </si>
+  <si>
+    <t>2019-12-05T19:10:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
+  </si>
+  <si>
+    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:06:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
+  </si>
+  <si>
+    <t>Retraites : je souhaite que Macron connaisse un échec</t>
+  </si>
+  <si>
+    <t>2019-12-04T07:52:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
@@ -152,22 +362,31 @@
     <t>2019-04-25T10:47:19.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
-  </si>
-  <si>
-    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:20:06.000Z</t>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
+  </si>
+  <si>
+    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-07T09:00:10.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Lyh0CAZY4VM</t>
@@ -177,225 +396,6 @@
   </si>
   <si>
     <t>2019-12-09T10:30:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
-  </si>
-  <si>
-    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:06:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
-  </si>
-  <si>
-    <t>Retraites : je souhaite que Macron connaisse un échec</t>
-  </si>
-  <si>
-    <t>2019-12-04T07:52:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
-  </si>
-  <si>
-    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-07T09:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
-  </si>
-  <si>
-    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-03T16:00:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i6iwRtzoBbo</t>
-  </si>
-  <si>
-    <t>#RDLS101 - Spéciale grève du 5 décembre - EN DIRECT !</t>
-  </si>
-  <si>
-    <t>2019-12-05T19:10:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le conservatisme ? 05.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T17:30:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
-  </si>
-  <si>
-    <t>RETRAITES : «Le gouvernement doit retirer son projet»</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:01:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -857,19 +857,19 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="3">
-        <v>23702</v>
+        <v>13867</v>
       </c>
       <c r="F4" s="3">
-        <v>3315</v>
+        <v>934</v>
       </c>
       <c r="G4" s="3">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -878,45 +878,45 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="3">
+        <v>85071</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4248</v>
+      </c>
+      <c r="G5" s="3">
+        <v>135</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>464</v>
+      </c>
+      <c r="L5" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4463</v>
-      </c>
-      <c r="F5" s="3">
-        <v>211</v>
-      </c>
-      <c r="G5" s="3">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>16</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -927,19 +927,19 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>13867</v>
+        <v>52652</v>
       </c>
       <c r="F6" s="3">
-        <v>934</v>
+        <v>7833</v>
       </c>
       <c r="G6" s="3">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -962,31 +962,31 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>85071</v>
+        <v>23702</v>
       </c>
       <c r="F7" s="3">
-        <v>4248</v>
+        <v>3315</v>
       </c>
       <c r="G7" s="3">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="H7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>464</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -997,19 +997,19 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>52652</v>
+        <v>4463</v>
       </c>
       <c r="F8" s="3">
-        <v>7833</v>
+        <v>211</v>
       </c>
       <c r="G8" s="3">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>346</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1038,13 +1038,13 @@
         <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>2418</v>
+        <v>4358</v>
       </c>
       <c r="F9" s="3">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G9" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -1067,19 +1067,19 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3">
-        <v>4358</v>
+        <v>346</v>
       </c>
       <c r="F10" s="3">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="G10" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -1096,26 +1096,26 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="3">
+        <v>1386</v>
+      </c>
+      <c r="F11" s="3">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -1137,19 +1137,19 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3">
-        <v>5880</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1166,25 +1166,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3">
-        <v>5854</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1201,25 +1201,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3">
-        <v>35734</v>
+        <v>1080</v>
       </c>
       <c r="F14" s="3">
-        <v>3785</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1073</v>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1236,25 +1236,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3">
-        <v>24429</v>
+        <v>691</v>
       </c>
       <c r="F15" s="3">
-        <v>2588</v>
+        <v>13</v>
       </c>
       <c r="G15" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>588</v>
+        <v>3</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1271,25 +1271,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="3">
-        <v>1386</v>
+        <v>58018</v>
       </c>
       <c r="F16" s="3">
-        <v>47</v>
+        <v>3627</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>340</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1306,25 +1306,25 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3">
-        <v>346</v>
+        <v>2418</v>
       </c>
       <c r="F17" s="3">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1341,22 +1341,22 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3">
-        <v>691</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -1376,34 +1376,34 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3">
-        <v>90458</v>
+        <v>357</v>
       </c>
       <c r="F19" s="3">
-        <v>5026</v>
+        <v>13</v>
       </c>
       <c r="G19" s="3">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1411,25 +1411,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" s="3">
-        <v>541</v>
+        <v>75707</v>
       </c>
       <c r="F20" s="3">
-        <v>22</v>
+        <v>4287</v>
       </c>
       <c r="G20" s="3">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>628</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1446,25 +1446,25 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3">
-        <v>1080</v>
+        <v>1542</v>
       </c>
       <c r="F21" s="3">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1481,25 +1481,25 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="3">
-        <v>38571</v>
+        <v>4508</v>
       </c>
       <c r="F22" s="3">
-        <v>5242</v>
+        <v>446</v>
       </c>
       <c r="G22" s="3">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
@@ -1516,25 +1516,25 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" s="3">
-        <v>826</v>
+        <v>5854</v>
       </c>
       <c r="F23" s="3">
-        <v>129</v>
+        <v>555</v>
       </c>
       <c r="G23" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
@@ -1551,34 +1551,34 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" s="3">
-        <v>58018</v>
+        <v>62509</v>
       </c>
       <c r="F24" s="3">
-        <v>3627</v>
+        <v>4841</v>
       </c>
       <c r="G24" s="3">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>340</v>
+        <v>526</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
@@ -1586,25 +1586,25 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>88</v>
       </c>
       <c r="E25" s="3">
-        <v>5</v>
+        <v>826</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
@@ -1633,13 +1633,13 @@
         <v>91</v>
       </c>
       <c r="E26" s="3">
-        <v>4508</v>
+        <v>5880</v>
       </c>
       <c r="F26" s="3">
-        <v>446</v>
+        <v>594</v>
       </c>
       <c r="G26" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1662,19 +1662,19 @@
         <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
         <v>94</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>38571</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>5242</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1697,19 +1697,19 @@
         <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
       </c>
       <c r="E28" s="3">
-        <v>75707</v>
+        <v>24429</v>
       </c>
       <c r="F28" s="3">
-        <v>4287</v>
+        <v>2588</v>
       </c>
       <c r="G28" s="3">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
@@ -1732,7 +1732,7 @@
         <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
         <v>100</v>
@@ -1767,28 +1767,28 @@
         <v>102</v>
       </c>
       <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
         <v>103</v>
       </c>
-      <c r="D30" t="s">
-        <v>104</v>
-      </c>
       <c r="E30" s="3">
+        <v>90458</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5026</v>
+      </c>
+      <c r="G30" s="3">
+        <v>113</v>
+      </c>
+      <c r="H30" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
@@ -1796,26 +1796,26 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
         <v>105</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>106</v>
-      </c>
-      <c r="C31" t="s">
-        <v>103</v>
       </c>
       <c r="D31" t="s">
         <v>107</v>
       </c>
       <c r="E31" s="3">
+        <v>2165</v>
+      </c>
+      <c r="F31" s="3">
+        <v>278</v>
+      </c>
+      <c r="G31" s="3">
         <v>2</v>
       </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
       <c r="H31" s="3">
         <v>0</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
@@ -1837,7 +1837,7 @@
         <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
         <v>110</v>
@@ -1872,19 +1872,19 @@
         <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E33" s="3">
-        <v>1542</v>
+        <v>3</v>
       </c>
       <c r="F33" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
@@ -1901,25 +1901,25 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E34" s="3">
-        <v>357</v>
+        <v>2</v>
       </c>
       <c r="F34" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -1936,25 +1936,25 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
         <v>120</v>
       </c>
       <c r="E35" s="3">
-        <v>2165</v>
+        <v>6</v>
       </c>
       <c r="F35" s="3">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -1977,19 +1977,19 @@
         <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
         <v>123</v>
       </c>
       <c r="E36" s="3">
-        <v>2</v>
+        <v>541</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2012,28 +2012,28 @@
         <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
         <v>126</v>
       </c>
       <c r="E37" s="3">
-        <v>62509</v>
+        <v>35734</v>
       </c>
       <c r="F37" s="3">
-        <v>4841</v>
+        <v>3785</v>
       </c>
       <c r="G37" s="3">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="H37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>526</v>
+        <v>1073</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2095,7 +2095,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>13166</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B3">
         <v>34</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="132">
   <si>
     <t>URL</t>
   </si>
@@ -53,24 +53,78 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
+  </si>
+  <si>
+    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-09T15:30:03.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
+  </si>
+  <si>
+    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
+  </si>
+  <si>
+    <t>JEAN-LUC MÉLENCHON</t>
+  </si>
+  <si>
+    <t>2019-12-19T18:27:32.000Z</t>
+  </si>
+  <si>
+    <t>['JEAN-LUC MÉLENCHON']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
+  </si>
+  <si>
+    <t>RETRAITES : Le ras-le-bol est général.</t>
+  </si>
+  <si>
+    <t>2019-12-22T19:50:20.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
+  </si>
+  <si>
+    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:54:39.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
   </si>
   <si>
     <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
   </si>
   <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
     <t>2019-12-20T18:05:05.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
   </si>
   <si>
@@ -80,46 +134,178 @@
     <t>2019-12-23T17:23:54.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
-  </si>
-  <si>
-    <t>RETRAITES : Le ras-le-bol est général.</t>
-  </si>
-  <si>
-    <t>JEAN-LUC MÉLENCHON</t>
-  </si>
-  <si>
-    <t>2019-12-22T19:50:20.000Z</t>
-  </si>
-  <si>
-    <t>['JEAN-LUC MÉLENCHON']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
-  </si>
-  <si>
-    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
-  </si>
-  <si>
-    <t>2019-12-19T18:27:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
-  </si>
-  <si>
-    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:54:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
-  </si>
-  <si>
-    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T15:30:03.000Z</t>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
+  </si>
+  <si>
+    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-03T16:00:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
+  </si>
+  <si>
+    <t>Retraites : je souhaite que Macron connaisse un échec</t>
+  </si>
+  <si>
+    <t>2019-12-04T07:52:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lyh0CAZY4VM</t>
+  </si>
+  <si>
+    <t>«C'est un jugement politique» - Mélenchon après le jugement à Bobigny</t>
+  </si>
+  <si>
+    <t>2019-12-09T10:30:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
+  </si>
+  <si>
+    <t>RETRAITES : «Le gouvernement doit retirer son projet»</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:01:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
+  </si>
+  <si>
+    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-07T09:00:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IaRQjJvU3C4</t>
+  </si>
+  <si>
+    <t>la mayonnaise / haut comme trois pommes / Kevin Kühnert - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-02T11:13:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
@@ -131,18 +317,72 @@
     <t>2019-12-12T15:30:02.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
   </si>
   <si>
     <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
   </si>
   <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
     <t>2019-12-24T09:30:04.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
+  </si>
+  <si>
+    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:20:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
+  </si>
+  <si>
+    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:06:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
   </si>
   <si>
@@ -152,82 +392,13 @@
     <t>2019-12-26T16:00:04.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
-  </si>
-  <si>
-    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-03T16:00:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
-  </si>
-  <si>
-    <t>RETRAITES : «Le gouvernement doit retirer son projet»</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:01:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
-  </si>
-  <si>
-    <t>La crise bolivienne. 02.12.2019.</t>
-  </si>
-  <si>
-    <t>2019-12-02T17:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
@@ -237,165 +408,6 @@
   </si>
   <si>
     <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
-  </si>
-  <si>
-    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:20:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le conservatisme ? 05.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T17:30:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i6iwRtzoBbo</t>
-  </si>
-  <si>
-    <t>#RDLS101 - Spéciale grève du 5 décembre - EN DIRECT !</t>
-  </si>
-  <si>
-    <t>2019-12-05T19:10:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
-  </si>
-  <si>
-    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:06:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
-  </si>
-  <si>
-    <t>Retraites : je souhaite que Macron connaisse un échec</t>
-  </si>
-  <si>
-    <t>2019-12-04T07:52:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
-  </si>
-  <si>
-    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-07T09:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Lyh0CAZY4VM</t>
-  </si>
-  <si>
-    <t>«C'est un jugement politique» - Mélenchon après le jugement à Bobigny</t>
-  </si>
-  <si>
-    <t>2019-12-09T10:30:58.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -756,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,13 +840,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>3484</v>
+        <v>23164</v>
       </c>
       <c r="F3" s="3">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="G3" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -843,33 +855,33 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>13867</v>
+        <v>4463</v>
       </c>
       <c r="F4" s="3">
-        <v>934</v>
+        <v>211</v>
       </c>
       <c r="G4" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -878,94 +890,94 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3">
-        <v>85071</v>
+        <v>52652</v>
       </c>
       <c r="F5" s="3">
-        <v>4248</v>
+        <v>7833</v>
       </c>
       <c r="G5" s="3">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="H5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>464</v>
+        <v>346</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3">
+        <v>85071</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4248</v>
+      </c>
+      <c r="G6" s="3">
+        <v>135</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>464</v>
+      </c>
+      <c r="L6" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3">
-        <v>52652</v>
-      </c>
-      <c r="F6" s="3">
-        <v>7833</v>
-      </c>
-      <c r="G6" s="3">
-        <v>85</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>346</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3">
         <v>23702</v>
@@ -986,30 +998,30 @@
         <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3">
-        <v>4463</v>
+        <v>3484</v>
       </c>
       <c r="F8" s="3">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G8" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1018,65 +1030,65 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3">
-        <v>4358</v>
+        <v>13867</v>
       </c>
       <c r="F9" s="3">
-        <v>230</v>
+        <v>934</v>
       </c>
       <c r="G9" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3">
-        <v>346</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -1088,33 +1100,33 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3">
-        <v>1386</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1123,30 +1135,30 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>1080</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1158,33 +1170,33 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>106303</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>4496</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1193,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1207,19 +1219,19 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="3">
-        <v>1080</v>
+        <v>575</v>
       </c>
       <c r="F14" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1228,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1242,31 +1254,31 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="3">
-        <v>691</v>
+        <v>90458</v>
       </c>
       <c r="F15" s="3">
-        <v>13</v>
+        <v>5026</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1190</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1277,19 +1289,19 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="3">
-        <v>58018</v>
+        <v>35734</v>
       </c>
       <c r="F16" s="3">
-        <v>3627</v>
+        <v>3785</v>
       </c>
       <c r="G16" s="3">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1298,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>340</v>
+        <v>1073</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1312,19 +1324,19 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="3">
-        <v>2418</v>
+        <v>691</v>
       </c>
       <c r="F17" s="3">
-        <v>264</v>
+        <v>13</v>
       </c>
       <c r="G17" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1333,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1347,19 +1359,19 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>4508</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1368,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1382,19 +1394,19 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="3">
-        <v>357</v>
+        <v>7772</v>
       </c>
       <c r="F19" s="3">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1403,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1417,19 +1429,19 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="E20" s="3">
-        <v>75707</v>
+        <v>58018</v>
       </c>
       <c r="F20" s="3">
-        <v>4287</v>
+        <v>3627</v>
       </c>
       <c r="G20" s="3">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1438,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>628</v>
+        <v>340</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1452,19 +1464,19 @@
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="3">
-        <v>1542</v>
+        <v>269112</v>
       </c>
       <c r="F21" s="3">
-        <v>48</v>
+        <v>5243</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1473,33 +1485,33 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3">
-        <v>4508</v>
+        <v>11977</v>
       </c>
       <c r="F22" s="3">
-        <v>446</v>
+        <v>324</v>
       </c>
       <c r="G22" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1508,33 +1520,33 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="3">
-        <v>5854</v>
+        <v>357</v>
       </c>
       <c r="F23" s="3">
-        <v>555</v>
+        <v>13</v>
       </c>
       <c r="G23" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1543,68 +1555,68 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E24" s="3">
-        <v>62509</v>
+        <v>541</v>
       </c>
       <c r="F24" s="3">
-        <v>4841</v>
+        <v>22</v>
       </c>
       <c r="G24" s="3">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>526</v>
-      </c>
       <c r="L24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E25" s="3">
-        <v>826</v>
+        <v>10335</v>
       </c>
       <c r="F25" s="3">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="G25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1613,68 +1625,68 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" s="3">
-        <v>5880</v>
+        <v>62509</v>
       </c>
       <c r="F26" s="3">
-        <v>594</v>
+        <v>4841</v>
       </c>
       <c r="G26" s="3">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>89</v>
+        <v>526</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E27" s="3">
-        <v>38571</v>
+        <v>2165</v>
       </c>
       <c r="F27" s="3">
-        <v>5242</v>
+        <v>278</v>
       </c>
       <c r="G27" s="3">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1683,33 +1695,33 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="L27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E28" s="3">
-        <v>24429</v>
+        <v>4358</v>
       </c>
       <c r="F28" s="3">
-        <v>2588</v>
+        <v>230</v>
       </c>
       <c r="G28" s="3">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1718,33 +1730,33 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>588</v>
+        <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E29" s="3">
-        <v>106303</v>
+        <v>1542</v>
       </c>
       <c r="F29" s="3">
-        <v>4496</v>
+        <v>48</v>
       </c>
       <c r="G29" s="3">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1753,68 +1765,68 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>647</v>
+        <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E30" s="3">
-        <v>90458</v>
+        <v>3</v>
       </c>
       <c r="F30" s="3">
-        <v>5026</v>
+        <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E31" s="3">
-        <v>2165</v>
+        <v>346</v>
       </c>
       <c r="F31" s="3">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="G31" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -1823,33 +1835,33 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E32" s="3">
-        <v>575</v>
+        <v>5854</v>
       </c>
       <c r="F32" s="3">
-        <v>38</v>
+        <v>555</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1858,33 +1870,33 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E33" s="3">
-        <v>3</v>
+        <v>2352</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1893,33 +1905,33 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E34" s="3">
-        <v>2</v>
+        <v>24429</v>
       </c>
       <c r="F34" s="3">
-        <v>0</v>
+        <v>2588</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -1928,33 +1940,33 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E35" s="3">
-        <v>6</v>
+        <v>5880</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -1963,30 +1975,30 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E36" s="3">
-        <v>541</v>
+        <v>1386</v>
       </c>
       <c r="F36" s="3">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G36" s="3">
         <v>3</v>
@@ -1998,33 +2010,33 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E37" s="3">
-        <v>35734</v>
+        <v>9999</v>
       </c>
       <c r="F37" s="3">
-        <v>3785</v>
+        <v>357</v>
       </c>
       <c r="G37" s="3">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -2033,10 +2045,45 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1073</v>
+        <v>20</v>
       </c>
       <c r="L37" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="3">
+        <v>75707</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4287</v>
+      </c>
+      <c r="G38" s="3">
+        <v>108</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>628</v>
+      </c>
+      <c r="L38" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2076,6 +2123,7 @@
     <hyperlink ref="A35" r:id="rId33"/>
     <hyperlink ref="A36" r:id="rId34"/>
     <hyperlink ref="A37" r:id="rId35"/>
+    <hyperlink ref="A38" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2083,7 +2131,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2095,31 +2143,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B1">
-        <v>13166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>1691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2127,7 +2175,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2135,7 +2183,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2143,9 +2191,17 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
   <si>
     <t>URL</t>
   </si>
@@ -53,6 +53,36 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
   </si>
   <si>
@@ -65,22 +95,37 @@
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
   </si>
   <si>
     <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
   </si>
   <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
     <t>2019-12-09T15:30:03.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
+  </si>
+  <si>
+    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
+  </si>
+  <si>
+    <t>JEAN-LUC MÉLENCHON</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:54:39.000Z</t>
+  </si>
+  <si>
+    <t>['JEAN-LUC MÉLENCHON']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
+  </si>
+  <si>
+    <t>RETRAITES : Le ras-le-bol est général.</t>
+  </si>
+  <si>
+    <t>2019-12-22T19:50:20.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
@@ -89,42 +134,9 @@
     <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
   </si>
   <si>
-    <t>JEAN-LUC MÉLENCHON</t>
-  </si>
-  <si>
     <t>2019-12-19T18:27:32.000Z</t>
   </si>
   <si>
-    <t>['JEAN-LUC MÉLENCHON']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
-  </si>
-  <si>
-    <t>RETRAITES : Le ras-le-bol est général.</t>
-  </si>
-  <si>
-    <t>2019-12-22T19:50:20.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
-  </si>
-  <si>
-    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:54:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
   </si>
   <si>
@@ -134,37 +146,97 @@
     <t>2019-12-23T17:23:54.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
-  </si>
-  <si>
-    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
+    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
+  </si>
+  <si>
+    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:06:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
+  </si>
+  <si>
+    <t>RETRAITES : «Le gouvernement doit retirer son projet»</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:01:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
   </si>
   <si>
     <t>ARTE Radio</t>
   </si>
   <si>
-    <t>2019-12-03T16:00:18.000Z</t>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
+  </si>
+  <si>
+    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-07T09:00:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
@@ -176,13 +248,91 @@
     <t>2019-12-11T20:00:22.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lyh0CAZY4VM</t>
+  </si>
+  <si>
+    <t>«C'est un jugement politique» - Mélenchon après le jugement à Bobigny</t>
+  </si>
+  <si>
+    <t>2019-12-09T10:30:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IaRQjJvU3C4</t>
+  </si>
+  <si>
+    <t>la mayonnaise / haut comme trois pommes / Kevin Kühnert - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-02T11:13:43.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
@@ -194,33 +344,6 @@
     <t>2019-12-04T07:52:41.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Lyh0CAZY4VM</t>
-  </si>
-  <si>
-    <t>«C'est un jugement politique» - Mélenchon après le jugement à Bobigny</t>
-  </si>
-  <si>
-    <t>2019-12-09T10:30:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
   </si>
   <si>
@@ -230,13 +353,22 @@
     <t>2019-12-23T09:00:06.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
-  </si>
-  <si>
-    <t>RETRAITES : «Le gouvernement doit retirer son projet»</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:01:54.000Z</t>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
+  </si>
+  <si>
+    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:20:06.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
@@ -251,63 +383,6 @@
     <t>2019-04-06T13:45:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
-  </si>
-  <si>
-    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-07T09:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IaRQjJvU3C4</t>
-  </si>
-  <si>
-    <t>la mayonnaise / haut comme trois pommes / Kevin Kühnert - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-02T11:13:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
   </si>
   <si>
@@ -317,63 +392,6 @@
     <t>2019-12-12T15:30:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
-  </si>
-  <si>
-    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:20:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
-  </si>
-  <si>
-    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:06:15.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
   </si>
   <si>
@@ -381,33 +399,6 @@
   </si>
   <si>
     <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -768,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -840,13 +831,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>23164</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -855,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -875,13 +866,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>4463</v>
+        <v>3484</v>
       </c>
       <c r="F4" s="3">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G4" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -890,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -910,13 +901,13 @@
         <v>25</v>
       </c>
       <c r="E5" s="3">
-        <v>52652</v>
+        <v>23164</v>
       </c>
       <c r="F5" s="3">
-        <v>7833</v>
+        <v>162</v>
       </c>
       <c r="G5" s="3">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -925,56 +916,56 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>346</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="3">
-        <v>85071</v>
+        <v>4463</v>
       </c>
       <c r="F6" s="3">
-        <v>4248</v>
+        <v>211</v>
       </c>
       <c r="G6" s="3">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="H6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>464</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
@@ -998,65 +989,65 @@
         <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3">
+        <v>85071</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4248</v>
+      </c>
+      <c r="G8" s="3">
+        <v>135</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>464</v>
+      </c>
+      <c r="L8" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3484</v>
-      </c>
-      <c r="F8" s="3">
-        <v>224</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3">
-        <v>13867</v>
+        <v>52652</v>
       </c>
       <c r="F9" s="3">
-        <v>934</v>
+        <v>7833</v>
       </c>
       <c r="G9" s="3">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1065,42 +1056,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="3">
+        <v>13867</v>
+      </c>
+      <c r="F10" s="3">
+        <v>934</v>
+      </c>
+      <c r="G10" s="3">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1114,19 +1105,19 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="3">
-        <v>2</v>
+        <v>24429</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>2588</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1135,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -1149,19 +1140,19 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
       <c r="E12" s="3">
-        <v>1080</v>
+        <v>58018</v>
       </c>
       <c r="F12" s="3">
-        <v>40</v>
+        <v>3627</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1170,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>764</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1178,25 +1169,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="3">
-        <v>106303</v>
+        <v>691</v>
       </c>
       <c r="F13" s="3">
-        <v>4496</v>
+        <v>13</v>
       </c>
       <c r="G13" s="3">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1205,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>647</v>
+        <v>3</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1219,16 +1210,16 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="3">
-        <v>575</v>
+        <v>357</v>
       </c>
       <c r="F14" s="3">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -1240,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1254,28 +1245,28 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="3">
-        <v>90458</v>
+        <v>1542</v>
       </c>
       <c r="F15" s="3">
-        <v>5026</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1190</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1289,19 +1280,19 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="3">
-        <v>35734</v>
+        <v>575</v>
       </c>
       <c r="F16" s="3">
-        <v>3785</v>
+        <v>38</v>
       </c>
       <c r="G16" s="3">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1310,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1073</v>
+        <v>2</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1324,19 +1315,19 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="3">
-        <v>691</v>
+        <v>541</v>
       </c>
       <c r="F17" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1345,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -1359,19 +1350,19 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="3">
-        <v>4508</v>
+        <v>75707</v>
       </c>
       <c r="F18" s="3">
-        <v>446</v>
+        <v>4287</v>
       </c>
       <c r="G18" s="3">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1380,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24</v>
+        <v>628</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1394,19 +1385,19 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="3">
-        <v>7772</v>
+        <v>2352</v>
       </c>
       <c r="F19" s="3">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="G19" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1415,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1429,19 +1420,19 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="E20" s="3">
-        <v>58018</v>
+        <v>4508</v>
       </c>
       <c r="F20" s="3">
-        <v>3627</v>
+        <v>446</v>
       </c>
       <c r="G20" s="3">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1450,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>340</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1464,19 +1455,19 @@
         <v>75</v>
       </c>
       <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
       <c r="E21" s="3">
-        <v>269112</v>
+        <v>106303</v>
       </c>
       <c r="F21" s="3">
-        <v>5243</v>
+        <v>4496</v>
       </c>
       <c r="G21" s="3">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1485,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>246</v>
+        <v>647</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -1493,25 +1484,25 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
       <c r="E22" s="3">
-        <v>11977</v>
+        <v>346</v>
       </c>
       <c r="F22" s="3">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="G22" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1520,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1528,25 +1519,25 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
       <c r="E23" s="3">
-        <v>357</v>
+        <v>1386</v>
       </c>
       <c r="F23" s="3">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1555,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1563,34 +1554,34 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>86</v>
-      </c>
       <c r="E24" s="3">
-        <v>541</v>
+        <v>62509</v>
       </c>
       <c r="F24" s="3">
-        <v>22</v>
+        <v>4841</v>
       </c>
       <c r="G24" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>526</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1598,25 +1589,25 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
         <v>87</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>88</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="3">
-        <v>10335</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1625,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -1639,28 +1630,28 @@
         <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>92</v>
       </c>
       <c r="E26" s="3">
-        <v>62509</v>
+        <v>9</v>
       </c>
       <c r="F26" s="3">
-        <v>4841</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -1674,19 +1665,19 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
         <v>95</v>
       </c>
-      <c r="D27" t="s">
-        <v>96</v>
-      </c>
       <c r="E27" s="3">
-        <v>2165</v>
+        <v>35734</v>
       </c>
       <c r="F27" s="3">
-        <v>278</v>
+        <v>3785</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1695,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>29</v>
+        <v>1073</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -1703,25 +1694,25 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
         <v>97</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>98</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
       </c>
       <c r="D28" t="s">
         <v>99</v>
       </c>
       <c r="E28" s="3">
-        <v>4358</v>
+        <v>2165</v>
       </c>
       <c r="F28" s="3">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="G28" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1730,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -1744,19 +1735,19 @@
         <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
         <v>102</v>
       </c>
       <c r="E29" s="3">
-        <v>1542</v>
+        <v>11977</v>
       </c>
       <c r="F29" s="3">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="G29" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1765,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -1779,19 +1770,19 @@
         <v>104</v>
       </c>
       <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
         <v>105</v>
       </c>
-      <c r="D30" t="s">
-        <v>106</v>
-      </c>
       <c r="E30" s="3">
-        <v>3</v>
+        <v>10335</v>
       </c>
       <c r="F30" s="3">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -1800,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -1808,34 +1799,34 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
         <v>107</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
         <v>108</v>
       </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" t="s">
-        <v>109</v>
-      </c>
       <c r="E31" s="3">
-        <v>346</v>
+        <v>90458</v>
       </c>
       <c r="F31" s="3">
-        <v>16</v>
+        <v>5026</v>
       </c>
       <c r="G31" s="3">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="H31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>1190</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -1843,25 +1834,25 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
         <v>110</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
         <v>111</v>
       </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
-        <v>112</v>
-      </c>
       <c r="E32" s="3">
-        <v>5854</v>
+        <v>7772</v>
       </c>
       <c r="F32" s="3">
-        <v>555</v>
+        <v>239</v>
       </c>
       <c r="G32" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1870,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -1878,25 +1869,25 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
         <v>113</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
         <v>114</v>
       </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>115</v>
-      </c>
       <c r="E33" s="3">
-        <v>2352</v>
+        <v>9999</v>
       </c>
       <c r="F33" s="3">
-        <v>89</v>
+        <v>357</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1905,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -1913,25 +1904,25 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
         <v>116</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
         <v>117</v>
       </c>
-      <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" t="s">
-        <v>118</v>
-      </c>
       <c r="E34" s="3">
-        <v>24429</v>
+        <v>5854</v>
       </c>
       <c r="F34" s="3">
-        <v>2588</v>
+        <v>555</v>
       </c>
       <c r="G34" s="3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -1940,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>588</v>
+        <v>33</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -1948,25 +1939,25 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
         <v>119</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>120</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
       </c>
       <c r="D35" t="s">
         <v>121</v>
       </c>
       <c r="E35" s="3">
-        <v>5880</v>
+        <v>269112</v>
       </c>
       <c r="F35" s="3">
-        <v>594</v>
+        <v>5243</v>
       </c>
       <c r="G35" s="3">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -1975,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -1989,19 +1980,19 @@
         <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
         <v>124</v>
       </c>
       <c r="E36" s="3">
-        <v>1386</v>
+        <v>4358</v>
       </c>
       <c r="F36" s="3">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="G36" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -2010,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -2024,19 +2015,19 @@
         <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
         <v>127</v>
       </c>
       <c r="E37" s="3">
-        <v>9999</v>
+        <v>5880</v>
       </c>
       <c r="F37" s="3">
-        <v>357</v>
+        <v>594</v>
       </c>
       <c r="G37" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -2045,44 +2036,9 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38" s="3">
-        <v>75707</v>
-      </c>
-      <c r="F38" s="3">
-        <v>4287</v>
-      </c>
-      <c r="G38" s="3">
-        <v>108</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>628</v>
-      </c>
-      <c r="L38" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2123,7 +2079,6 @@
     <hyperlink ref="A35" r:id="rId33"/>
     <hyperlink ref="A36" r:id="rId34"/>
     <hyperlink ref="A37" r:id="rId35"/>
-    <hyperlink ref="A38" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2167,7 +2122,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2175,7 +2130,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2183,7 +2138,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2191,7 +2146,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2199,7 +2154,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B8">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="136">
   <si>
     <t>URL</t>
   </si>
@@ -53,6 +53,24 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
+  </si>
+  <si>
+    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
+  </si>
+  <si>
+    <t>JEAN-LUC MÉLENCHON</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:54:39.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>['JEAN-LUC MÉLENCHON']</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
   </si>
   <si>
@@ -68,19 +86,13 @@
     <t>[]</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
+    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
+  </si>
+  <si>
+    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
+  </si>
+  <si>
+    <t>2019-12-19T18:27:32.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
@@ -95,30 +107,6 @@
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
-  </si>
-  <si>
-    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T15:30:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
-  </si>
-  <si>
-    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
-  </si>
-  <si>
-    <t>JEAN-LUC MÉLENCHON</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:54:39.000Z</t>
-  </si>
-  <si>
-    <t>['JEAN-LUC MÉLENCHON']</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
   </si>
   <si>
@@ -128,22 +116,55 @@
     <t>2019-12-22T19:50:20.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
-  </si>
-  <si>
-    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
-  </si>
-  <si>
-    <t>2019-12-19T18:27:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
+    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
+  </si>
+  <si>
+    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-10T11:04:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
+  </si>
+  <si>
+    <t>RETRAITES : «Le gouvernement doit retirer son projet»</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:01:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
@@ -155,13 +176,88 @@
     <t>2019-12-10T12:06:15.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
-  </si>
-  <si>
-    <t>RETRAITES : «Le gouvernement doit retirer son projet»</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:01:54.000Z</t>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
@@ -170,19 +266,151 @@
     <t>The Village | Crackopolis - ARTE Radio Podcast</t>
   </si>
   <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
     <t>2019-12-19T16:45:27.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lyh0CAZY4VM</t>
+  </si>
+  <si>
+    <t>«C'est un jugement politique» - Mélenchon après le jugement à Bobigny</t>
+  </si>
+  <si>
+    <t>2019-12-09T10:30:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=plFHUOiKSYc</t>
+  </si>
+  <si>
+    <t>2019-12-09T09:45:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IaRQjJvU3C4</t>
+  </si>
+  <si>
+    <t>la mayonnaise / haut comme trois pommes / Kevin Kühnert - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-02T11:13:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
+  </si>
+  <si>
+    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-07T09:00:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
+  </si>
+  <si>
+    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+  </si>
+  <si>
+    <t>2019-12-11T10:23:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mz1dIfHwnVQ</t>
+  </si>
+  <si>
+    <t>Cercle Polar : lumières noires pour les fêtes</t>
+  </si>
+  <si>
+    <t>2019-12-06T09:04:45.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
+  </si>
+  <si>
+    <t>Retraites : je souhaite que Macron connaisse un échec</t>
+  </si>
+  <si>
+    <t>2019-12-04T07:52:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
@@ -192,213 +420,6 @@
   </si>
   <si>
     <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
-  </si>
-  <si>
-    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-07T09:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Lyh0CAZY4VM</t>
-  </si>
-  <si>
-    <t>«C'est un jugement politique» - Mélenchon après le jugement à Bobigny</t>
-  </si>
-  <si>
-    <t>2019-12-09T10:30:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IaRQjJvU3C4</t>
-  </si>
-  <si>
-    <t>la mayonnaise / haut comme trois pommes / Kevin Kühnert - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-02T11:13:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
-  </si>
-  <si>
-    <t>Retraites : je souhaite que Macron connaisse un échec</t>
-  </si>
-  <si>
-    <t>2019-12-04T07:52:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
-  </si>
-  <si>
-    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:20:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -759,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -831,13 +852,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>41</v>
+        <v>23702</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>3315</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -846,33 +867,33 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3">
-        <v>3484</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -881,33 +902,33 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="3">
-        <v>23164</v>
+        <v>52652</v>
       </c>
       <c r="F5" s="3">
-        <v>162</v>
+        <v>7833</v>
       </c>
       <c r="G5" s="3">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -916,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>346</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -930,19 +951,19 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3">
-        <v>4463</v>
+        <v>23164</v>
       </c>
       <c r="F6" s="3">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="G6" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -951,80 +972,80 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>23702</v>
+        <v>85071</v>
       </c>
       <c r="F7" s="3">
-        <v>3315</v>
+        <v>4248</v>
       </c>
       <c r="G7" s="3">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>54</v>
+        <v>464</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="3">
-        <v>85071</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3">
-        <v>4248</v>
+        <v>4</v>
       </c>
       <c r="G8" s="3">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1035,31 +1056,31 @@
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="3">
-        <v>52652</v>
+        <v>188</v>
       </c>
       <c r="F9" s="3">
-        <v>7833</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1070,19 +1091,19 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="3">
-        <v>13867</v>
+        <v>62509</v>
       </c>
       <c r="F10" s="3">
-        <v>934</v>
+        <v>4841</v>
       </c>
       <c r="G10" s="3">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -1091,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>53</v>
+        <v>526</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1105,19 +1126,19 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="3">
-        <v>24429</v>
+        <v>58018</v>
       </c>
       <c r="F11" s="3">
-        <v>2588</v>
+        <v>3627</v>
       </c>
       <c r="G11" s="3">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1126,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>588</v>
+        <v>883</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1140,19 +1161,19 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3">
-        <v>58018</v>
+        <v>1386</v>
       </c>
       <c r="F12" s="3">
-        <v>3627</v>
+        <v>47</v>
       </c>
       <c r="G12" s="3">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1161,33 +1182,33 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>764</v>
+        <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="3">
-        <v>691</v>
+        <v>24429</v>
       </c>
       <c r="F13" s="3">
-        <v>13</v>
+        <v>2588</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1196,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>588</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1210,19 +1231,19 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="3">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1234,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1245,19 +1266,19 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="3">
-        <v>1542</v>
+        <v>75707</v>
       </c>
       <c r="F15" s="3">
-        <v>48</v>
+        <v>4287</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1266,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>628</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1280,19 +1301,19 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="3">
-        <v>575</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1301,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1315,19 +1336,19 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="3">
-        <v>541</v>
+        <v>2165</v>
       </c>
       <c r="F17" s="3">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1336,33 +1357,33 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3">
-        <v>75707</v>
+        <v>346</v>
       </c>
       <c r="F18" s="3">
-        <v>4287</v>
+        <v>16</v>
       </c>
       <c r="G18" s="3">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1371,33 +1392,33 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>628</v>
+        <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="3">
-        <v>2352</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1406,33 +1427,33 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" s="3">
-        <v>4508</v>
+        <v>357</v>
       </c>
       <c r="F20" s="3">
-        <v>446</v>
+        <v>13</v>
       </c>
       <c r="G20" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1441,24 +1462,24 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="3">
         <v>106303</v>
@@ -1479,27 +1500,27 @@
         <v>647</v>
       </c>
       <c r="L21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1511,103 +1532,103 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="3">
-        <v>1386</v>
+        <v>691</v>
       </c>
       <c r="F23" s="3">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
       <c r="L23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E24" s="3">
-        <v>62509</v>
+        <v>2352</v>
       </c>
       <c r="F24" s="3">
-        <v>4841</v>
+        <v>89</v>
       </c>
       <c r="G24" s="3">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>526</v>
-      </c>
       <c r="L24" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="3">
-        <v>3</v>
+        <v>35734</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>3785</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1616,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1073</v>
       </c>
       <c r="L25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1630,19 +1651,19 @@
         <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
         <v>92</v>
       </c>
       <c r="E26" s="3">
-        <v>9</v>
+        <v>9999</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1651,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L26" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1665,19 +1686,19 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" s="3">
-        <v>35734</v>
+        <v>269112</v>
       </c>
       <c r="F27" s="3">
-        <v>3785</v>
+        <v>5243</v>
       </c>
       <c r="G27" s="3">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1686,33 +1707,33 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1073</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
         <v>99</v>
       </c>
       <c r="E28" s="3">
-        <v>2165</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1721,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1735,19 +1756,19 @@
         <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
         <v>102</v>
       </c>
       <c r="E29" s="3">
-        <v>11977</v>
+        <v>575</v>
       </c>
       <c r="F29" s="3">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="G29" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1756,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L29" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1767,22 +1788,22 @@
         <v>103</v>
       </c>
       <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
         <v>104</v>
       </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
-        <v>105</v>
-      </c>
       <c r="E30" s="3">
-        <v>10335</v>
+        <v>62</v>
       </c>
       <c r="F30" s="3">
-        <v>291</v>
+        <v>2</v>
       </c>
       <c r="G30" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -1791,68 +1812,68 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
         <v>106</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
         <v>107</v>
       </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>108</v>
-      </c>
       <c r="E31" s="3">
-        <v>90458</v>
+        <v>10335</v>
       </c>
       <c r="F31" s="3">
-        <v>5026</v>
+        <v>291</v>
       </c>
       <c r="G31" s="3">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="H31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1190</v>
+        <v>40</v>
       </c>
       <c r="L31" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
         <v>109</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
         <v>110</v>
       </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
-        <v>111</v>
-      </c>
       <c r="E32" s="3">
-        <v>7772</v>
+        <v>541</v>
       </c>
       <c r="F32" s="3">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="G32" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1861,33 +1882,33 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" t="s">
         <v>112</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
         <v>113</v>
       </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
       <c r="E33" s="3">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1896,33 +1917,33 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
         <v>115</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
         <v>116</v>
       </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
-        <v>117</v>
-      </c>
       <c r="E34" s="3">
-        <v>5854</v>
+        <v>12004</v>
       </c>
       <c r="F34" s="3">
-        <v>555</v>
+        <v>691</v>
       </c>
       <c r="G34" s="3">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -1931,33 +1952,33 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="L34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
         <v>118</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
         <v>119</v>
       </c>
-      <c r="C35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" t="s">
-        <v>121</v>
-      </c>
       <c r="E35" s="3">
-        <v>269112</v>
+        <v>202</v>
       </c>
       <c r="F35" s="3">
-        <v>5243</v>
+        <v>7</v>
       </c>
       <c r="G35" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -1966,80 +1987,185 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
         <v>122</v>
       </c>
-      <c r="B36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>124</v>
-      </c>
       <c r="E36" s="3">
-        <v>4358</v>
+        <v>90458</v>
       </c>
       <c r="F36" s="3">
-        <v>230</v>
+        <v>5026</v>
       </c>
       <c r="G36" s="3">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="H36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>21</v>
+        <v>1190</v>
       </c>
       <c r="L36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
         <v>125</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E37" s="3">
+        <v>11977</v>
+      </c>
+      <c r="F37" s="3">
+        <v>324</v>
+      </c>
+      <c r="G37" s="3">
+        <v>5</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>13</v>
+      </c>
+      <c r="L37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B38" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="3">
-        <v>5880</v>
-      </c>
-      <c r="F37" s="3">
-        <v>594</v>
-      </c>
-      <c r="G37" s="3">
-        <v>9</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>89</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="3">
+        <v>7772</v>
+      </c>
+      <c r="F38" s="3">
+        <v>239</v>
+      </c>
+      <c r="G38" s="3">
+        <v>5</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>16</v>
+      </c>
+      <c r="L38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="3">
+        <v>619</v>
+      </c>
+      <c r="F39" s="3">
+        <v>29</v>
+      </c>
+      <c r="G39" s="3">
+        <v>2</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1542</v>
+      </c>
+      <c r="F40" s="3">
+        <v>48</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2079,6 +2205,9 @@
     <hyperlink ref="A35" r:id="rId33"/>
     <hyperlink ref="A36" r:id="rId34"/>
     <hyperlink ref="A37" r:id="rId35"/>
+    <hyperlink ref="A38" r:id="rId36"/>
+    <hyperlink ref="A39" r:id="rId37"/>
+    <hyperlink ref="A40" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2086,7 +2215,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2106,7 +2235,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2114,7 +2243,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2122,7 +2251,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2130,7 +2259,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2138,7 +2267,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2146,17 +2275,9 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="137">
   <si>
     <t>URL</t>
   </si>
@@ -53,48 +53,57 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
+  </si>
+  <si>
+    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
+  </si>
+  <si>
+    <t>JEAN-LUC MÉLENCHON</t>
+  </si>
+  <si>
+    <t>2019-12-19T18:27:32.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>['JEAN-LUC MÉLENCHON']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
+  </si>
+  <si>
+    <t>RETRAITES : Le ras-le-bol est général.</t>
+  </si>
+  <si>
+    <t>2019-12-22T19:50:20.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
   </si>
   <si>
     <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
   </si>
   <si>
-    <t>JEAN-LUC MÉLENCHON</t>
-  </si>
-  <si>
     <t>2019-12-18T21:54:39.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>['JEAN-LUC MÉLENCHON']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
-  </si>
-  <si>
-    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
-  </si>
-  <si>
-    <t>2019-12-19T18:27:32.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
   </si>
   <si>
@@ -107,121 +116,277 @@
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
-  </si>
-  <si>
-    <t>RETRAITES : Le ras-le-bol est général.</t>
-  </si>
-  <si>
-    <t>2019-12-22T19:50:20.000Z</t>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=StSRcuc0qNE</t>
+  </si>
+  <si>
+    <t>Le bide magistral de Djebbari, secrétaire d'Etat, à la SNCF</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
+  </si>
+  <si>
+    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:06:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
+  </si>
+  <si>
+    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+  </si>
+  <si>
+    <t>2019-12-11T10:23:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=plFHUOiKSYc</t>
+  </si>
+  <si>
+    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
+  </si>
+  <si>
+    <t>2019-12-09T09:45:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
   </si>
   <si>
-    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
     <t>2019-12-10T11:04:16.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
-  </si>
-  <si>
-    <t>RETRAITES : «Le gouvernement doit retirer son projet»</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:01:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
-  </si>
-  <si>
-    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:06:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
@@ -233,40 +398,22 @@
     <t>2019-12-24T09:20:25.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
+    <t>https://www.youtube.com/watch?v=Lyh0CAZY4VM</t>
+  </si>
+  <si>
+    <t>«C'est un jugement politique» - Mélenchon après le jugement à Bobigny</t>
+  </si>
+  <si>
+    <t>2019-12-09T10:30:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
+  </si>
+  <si>
+    <t>La réforme des retraites par les nuls</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:21:48.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
@@ -276,150 +423,6 @@
   </si>
   <si>
     <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Lyh0CAZY4VM</t>
-  </si>
-  <si>
-    <t>«C'est un jugement politique» - Mélenchon après le jugement à Bobigny</t>
-  </si>
-  <si>
-    <t>2019-12-09T10:30:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=plFHUOiKSYc</t>
-  </si>
-  <si>
-    <t>2019-12-09T09:45:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IaRQjJvU3C4</t>
-  </si>
-  <si>
-    <t>la mayonnaise / haut comme trois pommes / Kevin Kühnert - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-02T11:13:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
-  </si>
-  <si>
-    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-07T09:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
-  </si>
-  <si>
-    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
-  </si>
-  <si>
-    <t>2019-12-11T10:23:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mz1dIfHwnVQ</t>
-  </si>
-  <si>
-    <t>Cercle Polar : lumières noires pour les fêtes</t>
-  </si>
-  <si>
-    <t>2019-12-06T09:04:45.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
-  </si>
-  <si>
-    <t>Retraites : je souhaite que Macron connaisse un échec</t>
-  </si>
-  <si>
-    <t>2019-12-04T07:52:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -852,13 +855,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>23702</v>
+        <v>52652</v>
       </c>
       <c r="F3" s="3">
-        <v>3315</v>
+        <v>7833</v>
       </c>
       <c r="G3" s="3">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -867,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>54</v>
+        <v>346</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -881,54 +884,54 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="3">
-        <v>41</v>
+        <v>85071</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>4248</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" s="3">
-        <v>52652</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3">
-        <v>7833</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -937,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -951,19 +954,19 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="3">
-        <v>23164</v>
+        <v>23702</v>
       </c>
       <c r="F6" s="3">
-        <v>162</v>
+        <v>3315</v>
       </c>
       <c r="G6" s="3">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -972,45 +975,45 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>85071</v>
+        <v>23164</v>
       </c>
       <c r="F7" s="3">
-        <v>4248</v>
+        <v>162</v>
       </c>
       <c r="G7" s="3">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="H7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1027,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="E8" s="3">
-        <v>43</v>
+        <v>269112</v>
       </c>
       <c r="F8" s="3">
-        <v>4</v>
+        <v>5243</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -1042,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1056,19 +1059,19 @@
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="3">
-        <v>188</v>
+        <v>106303</v>
       </c>
       <c r="F9" s="3">
-        <v>10</v>
+        <v>4496</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -1077,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1091,54 +1094,54 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3">
-        <v>62509</v>
+        <v>653</v>
       </c>
       <c r="F10" s="3">
-        <v>4841</v>
+        <v>102</v>
       </c>
       <c r="G10" s="3">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>526</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3">
-        <v>58018</v>
+        <v>630</v>
       </c>
       <c r="F11" s="3">
-        <v>3627</v>
+        <v>69</v>
       </c>
       <c r="G11" s="3">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1147,45 +1150,45 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>883</v>
+        <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="3">
-        <v>1386</v>
+        <v>62509</v>
       </c>
       <c r="F12" s="3">
-        <v>47</v>
+        <v>4841</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>526</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1196,19 +1199,19 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3">
-        <v>24429</v>
+        <v>226</v>
       </c>
       <c r="F13" s="3">
-        <v>2588</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1217,30 +1220,30 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1255,30 +1258,30 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3">
-        <v>75707</v>
+        <v>9</v>
       </c>
       <c r="F15" s="3">
-        <v>4287</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1287,65 +1290,65 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3">
+        <v>1080</v>
+      </c>
+      <c r="F16" s="3">
+        <v>101</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>9</v>
       </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="3">
-        <v>2165</v>
+        <v>641</v>
       </c>
       <c r="F17" s="3">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -1357,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1371,16 +1374,16 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1392,33 +1395,33 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>2165</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1427,33 +1430,33 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="3">
-        <v>357</v>
+        <v>24429</v>
       </c>
       <c r="F20" s="3">
-        <v>13</v>
+        <v>2588</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1462,33 +1465,33 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E21" s="3">
-        <v>106303</v>
+        <v>12004</v>
       </c>
       <c r="F21" s="3">
-        <v>4496</v>
+        <v>691</v>
       </c>
       <c r="G21" s="3">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1497,33 +1500,33 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>647</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1532,33 +1535,33 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E23" s="3">
-        <v>691</v>
+        <v>1274</v>
       </c>
       <c r="F23" s="3">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1567,33 +1570,33 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E24" s="3">
-        <v>2352</v>
+        <v>188</v>
       </c>
       <c r="F24" s="3">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1602,33 +1605,33 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E25" s="3">
-        <v>35734</v>
+        <v>1185</v>
       </c>
       <c r="F25" s="3">
-        <v>3785</v>
+        <v>84</v>
       </c>
       <c r="G25" s="3">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1637,33 +1640,33 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1073</v>
+        <v>6</v>
       </c>
       <c r="L25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E26" s="3">
-        <v>9999</v>
+        <v>43</v>
       </c>
       <c r="F26" s="3">
-        <v>357</v>
+        <v>6</v>
       </c>
       <c r="G26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1672,33 +1675,33 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E27" s="3">
-        <v>269112</v>
+        <v>7772</v>
       </c>
       <c r="F27" s="3">
-        <v>5243</v>
+        <v>239</v>
       </c>
       <c r="G27" s="3">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1707,33 +1710,33 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>75707</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
+        <v>4287</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1742,33 +1745,33 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" s="3">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1777,30 +1780,30 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E30" s="3">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
@@ -1815,30 +1818,30 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E31" s="3">
-        <v>10335</v>
+        <v>62</v>
       </c>
       <c r="F31" s="3">
-        <v>291</v>
+        <v>2</v>
       </c>
       <c r="G31" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -1847,33 +1850,33 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E32" s="3">
-        <v>541</v>
+        <v>9999</v>
       </c>
       <c r="F32" s="3">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="G32" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1882,30 +1885,30 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1920,30 +1923,30 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E34" s="3">
-        <v>12004</v>
+        <v>11977</v>
       </c>
       <c r="F34" s="3">
-        <v>691</v>
+        <v>324</v>
       </c>
       <c r="G34" s="3">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -1952,30 +1955,30 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="L34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E35" s="3">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -1990,65 +1993,65 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E36" s="3">
-        <v>90458</v>
+        <v>692</v>
       </c>
       <c r="F36" s="3">
-        <v>5026</v>
+        <v>82</v>
       </c>
       <c r="G36" s="3">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="H36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1190</v>
+        <v>10</v>
       </c>
       <c r="L36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E37" s="3">
-        <v>11977</v>
+        <v>0</v>
       </c>
       <c r="F37" s="3">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -2057,33 +2060,33 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E38" s="3">
-        <v>7772</v>
+        <v>35734</v>
       </c>
       <c r="F38" s="3">
-        <v>239</v>
+        <v>3785</v>
       </c>
       <c r="G38" s="3">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -2092,33 +2095,33 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>16</v>
+        <v>1073</v>
       </c>
       <c r="L38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E39" s="3">
-        <v>619</v>
+        <v>425</v>
       </c>
       <c r="F39" s="3">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="G39" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -2127,30 +2130,30 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E40" s="3">
-        <v>1542</v>
+        <v>2352</v>
       </c>
       <c r="F40" s="3">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -2165,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2215,7 +2218,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2235,7 +2238,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2259,7 +2262,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2267,7 +2270,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2275,9 +2278,17 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
   <si>
     <t>URL</t>
   </si>
@@ -53,67 +53,82 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
-  </si>
-  <si>
-    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
-  </si>
-  <si>
-    <t>JEAN-LUC MÉLENCHON</t>
-  </si>
-  <si>
-    <t>2019-12-19T18:27:32.000Z</t>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>['JEAN-LUC MÉLENCHON']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
-  </si>
-  <si>
-    <t>RETRAITES : Le ras-le-bol est général.</t>
-  </si>
-  <si>
-    <t>2019-12-22T19:50:20.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
-  </si>
-  <si>
-    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:54:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
+  </si>
+  <si>
+    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
+  </si>
+  <si>
+    <t>2019-12-10T11:04:16.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
@@ -128,13 +143,118 @@
     <t>2019-04-06T13:45:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
+  </si>
+  <si>
+    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+  </si>
+  <si>
+    <t>2019-12-11T10:23:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
+  </si>
+  <si>
+    <t>La réforme des retraites par les nuls</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:21:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
@@ -143,58 +263,34 @@
     <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
   </si>
   <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
     <t>2019-12-15T13:04:41.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=StSRcuc0qNE</t>
-  </si>
-  <si>
-    <t>Le bide magistral de Djebbari, secrétaire d'Etat, à la SNCF</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
@@ -206,27 +302,6 @@
     <t>2019-12-12T15:14:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
   </si>
   <si>
@@ -239,127 +314,13 @@
     <t>2019-11-30T05:00:09.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
-  </si>
-  <si>
-    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:06:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
-  </si>
-  <si>
-    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
-  </si>
-  <si>
-    <t>2019-12-11T10:23:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=plFHUOiKSYc</t>
-  </si>
-  <si>
-    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
-  </si>
-  <si>
-    <t>2019-12-09T09:45:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
-  </si>
-  <si>
-    <t>2019-12-10T11:04:16.000Z</t>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
@@ -369,60 +330,6 @@
   </si>
   <si>
     <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Lyh0CAZY4VM</t>
-  </si>
-  <si>
-    <t>«C'est un jugement politique» - Mélenchon après le jugement à Bobigny</t>
-  </si>
-  <si>
-    <t>2019-12-09T10:30:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
-  </si>
-  <si>
-    <t>La réforme des retraites par les nuls</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:21:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -783,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -855,13 +762,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>52652</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3">
-        <v>7833</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -870,45 +777,45 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>85071</v>
+        <v>23164</v>
       </c>
       <c r="F4" s="3">
-        <v>4248</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -925,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -934,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -943,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -954,31 +861,31 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>23702</v>
+        <v>7772</v>
       </c>
       <c r="F6" s="3">
-        <v>3315</v>
+        <v>239</v>
       </c>
       <c r="G6" s="3">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -989,54 +896,54 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" s="3">
-        <v>23164</v>
+        <v>188</v>
       </c>
       <c r="F7" s="3">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
       <c r="E8" s="3">
-        <v>269112</v>
+        <v>619</v>
       </c>
       <c r="F8" s="3">
-        <v>5243</v>
+        <v>29</v>
       </c>
       <c r="G8" s="3">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -1045,33 +952,33 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
       <c r="E9" s="3">
-        <v>106303</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3">
-        <v>4496</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -1080,33 +987,33 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="3">
-        <v>653</v>
+        <v>269112</v>
       </c>
       <c r="F10" s="3">
-        <v>102</v>
+        <v>5243</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -1115,33 +1022,33 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" s="3">
-        <v>630</v>
+        <v>226</v>
       </c>
       <c r="F11" s="3">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1150,69 +1057,69 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
       <c r="E12" s="3">
-        <v>62509</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>4841</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
       <c r="E13" s="3">
-        <v>226</v>
+        <v>2352</v>
       </c>
       <c r="F13" s="3">
+        <v>89</v>
+      </c>
+      <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
@@ -1220,24 +1127,24 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
       </c>
       <c r="E14" s="3">
         <v>32</v>
@@ -1258,21 +1165,21 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
       </c>
       <c r="E15" s="3">
         <v>9</v>
@@ -1293,30 +1200,30 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
       <c r="E16" s="3">
-        <v>1080</v>
+        <v>641</v>
       </c>
       <c r="F16" s="3">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1325,33 +1232,33 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
       <c r="E17" s="3">
-        <v>641</v>
+        <v>12004</v>
       </c>
       <c r="F17" s="3">
-        <v>80</v>
+        <v>691</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1360,33 +1267,33 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1274</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1395,33 +1302,33 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
       <c r="E19" s="3">
-        <v>2165</v>
+        <v>692</v>
       </c>
       <c r="F19" s="3">
-        <v>278</v>
+        <v>82</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1430,33 +1337,33 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E20" s="3">
-        <v>24429</v>
+        <v>425</v>
       </c>
       <c r="F20" s="3">
-        <v>2588</v>
+        <v>62</v>
       </c>
       <c r="G20" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1465,33 +1372,33 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>588</v>
+        <v>7</v>
       </c>
       <c r="L20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3">
-        <v>12004</v>
+        <v>1185</v>
       </c>
       <c r="F21" s="3">
-        <v>691</v>
+        <v>84</v>
       </c>
       <c r="G21" s="3">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1500,33 +1407,33 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E22" s="3">
-        <v>619</v>
+        <v>9999</v>
       </c>
       <c r="F22" s="3">
-        <v>29</v>
+        <v>357</v>
       </c>
       <c r="G22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1535,33 +1442,33 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E23" s="3">
-        <v>1274</v>
+        <v>653</v>
       </c>
       <c r="F23" s="3">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1570,33 +1477,33 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E24" s="3">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="F24" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1608,30 +1515,30 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E25" s="3">
-        <v>1185</v>
+        <v>0</v>
       </c>
       <c r="F25" s="3">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1640,33 +1547,33 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E26" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1678,30 +1585,30 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E27" s="3">
-        <v>7772</v>
+        <v>1080</v>
       </c>
       <c r="F27" s="3">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="G27" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1710,33 +1617,33 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L27" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>100</v>
-      </c>
       <c r="E28" s="3">
-        <v>75707</v>
+        <v>2165</v>
       </c>
       <c r="F28" s="3">
-        <v>4287</v>
+        <v>278</v>
       </c>
       <c r="G28" s="3">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1745,30 +1652,30 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>628</v>
+        <v>32</v>
       </c>
       <c r="L28" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
         <v>101</v>
       </c>
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>103</v>
-      </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1783,30 +1690,30 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
         <v>104</v>
       </c>
-      <c r="B30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" t="s">
-        <v>106</v>
-      </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>11977</v>
       </c>
       <c r="F30" s="3">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -1815,360 +1722,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="3">
-        <v>62</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="3">
-        <v>9999</v>
-      </c>
-      <c r="F32" s="3">
-        <v>357</v>
-      </c>
-      <c r="G32" s="3">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>20</v>
-      </c>
-      <c r="L32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="3">
-        <v>43</v>
-      </c>
-      <c r="F33" s="3">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="3">
-        <v>11977</v>
-      </c>
-      <c r="F34" s="3">
-        <v>324</v>
-      </c>
-      <c r="G34" s="3">
-        <v>5</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>13</v>
-      </c>
-      <c r="L34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="3">
-        <v>692</v>
-      </c>
-      <c r="F36" s="3">
-        <v>82</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>10</v>
-      </c>
-      <c r="L36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="3">
-        <v>35734</v>
-      </c>
-      <c r="F38" s="3">
-        <v>3785</v>
-      </c>
-      <c r="G38" s="3">
-        <v>70</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>1073</v>
-      </c>
-      <c r="L38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="3">
-        <v>425</v>
-      </c>
-      <c r="F39" s="3">
-        <v>62</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>7</v>
-      </c>
-      <c r="L39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="3">
-        <v>2352</v>
-      </c>
-      <c r="F40" s="3">
-        <v>89</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2201,16 +1758,6 @@
     <hyperlink ref="A28" r:id="rId26"/>
     <hyperlink ref="A29" r:id="rId27"/>
     <hyperlink ref="A30" r:id="rId28"/>
-    <hyperlink ref="A31" r:id="rId29"/>
-    <hyperlink ref="A32" r:id="rId30"/>
-    <hyperlink ref="A33" r:id="rId31"/>
-    <hyperlink ref="A34" r:id="rId32"/>
-    <hyperlink ref="A35" r:id="rId33"/>
-    <hyperlink ref="A36" r:id="rId34"/>
-    <hyperlink ref="A37" r:id="rId35"/>
-    <hyperlink ref="A38" r:id="rId36"/>
-    <hyperlink ref="A39" r:id="rId37"/>
-    <hyperlink ref="A40" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2218,7 +1765,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2238,7 +1785,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2246,7 +1793,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2254,7 +1801,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2262,7 +1809,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2270,7 +1817,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2278,17 +1825,9 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -53,6 +53,21 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
   </si>
   <si>
@@ -65,19 +80,157 @@
     <t>2019-09-18T14:45:38.000Z</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
+  </si>
+  <si>
+    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-10T11:04:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
+  </si>
+  <si>
+    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+  </si>
+  <si>
+    <t>2019-12-11T10:23:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
+  </si>
+  <si>
+    <t>La réforme des retraites par les nuls</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:21:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
@@ -86,13 +239,16 @@
     <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
   </si>
   <si>
-    <t>Telerama</t>
-  </si>
-  <si>
     <t>2019-12-16T13:15:11.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
@@ -104,6 +260,60 @@
     <t>2019-12-23T09:00:06.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
   </si>
   <si>
@@ -113,132 +323,6 @@
     <t>2019-12-12T15:15:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
-  </si>
-  <si>
-    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
-  </si>
-  <si>
-    <t>2019-12-10T11:04:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
-  </si>
-  <si>
-    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
-  </si>
-  <si>
-    <t>2019-12-11T10:23:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
-  </si>
-  <si>
-    <t>La réforme des retraites par les nuls</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:21:48.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
   </si>
   <si>
@@ -246,90 +330,6 @@
   </si>
   <si>
     <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -762,13 +762,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>41</v>
+        <v>23164</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -797,13 +797,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>23164</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -832,14 +832,14 @@
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>1274</v>
       </c>
       <c r="F5" s="3">
+        <v>128</v>
+      </c>
+      <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -861,19 +861,19 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3">
-        <v>7772</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -890,26 +890,26 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3">
+        <v>12004</v>
+      </c>
+      <c r="F7" s="3">
+        <v>691</v>
+      </c>
+      <c r="G7" s="3">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3">
-        <v>188</v>
-      </c>
-      <c r="F7" s="3">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -925,34 +925,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2165</v>
+      </c>
+      <c r="F8" s="3">
+        <v>278</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3">
-        <v>619</v>
-      </c>
-      <c r="F8" s="3">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -960,22 +960,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3">
         <v>269112</v>
@@ -1030,25 +1030,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3">
-        <v>226</v>
-      </c>
       <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
         <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1065,25 +1065,25 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1100,25 +1100,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3">
-        <v>2352</v>
+        <v>653</v>
       </c>
       <c r="F13" s="3">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1135,22 +1135,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3">
-        <v>32</v>
+        <v>425</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1170,19 +1170,19 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1205,25 +1205,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3">
-        <v>641</v>
+        <v>32</v>
       </c>
       <c r="F16" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1240,25 +1240,25 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="3">
-        <v>12004</v>
+        <v>9</v>
       </c>
       <c r="F17" s="3">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -1275,22 +1275,22 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3">
-        <v>1274</v>
+        <v>641</v>
       </c>
       <c r="F18" s="3">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1310,22 +1310,22 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="3">
-        <v>692</v>
+        <v>226</v>
       </c>
       <c r="F19" s="3">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1345,22 +1345,22 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" s="3">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1380,25 +1380,25 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="3">
-        <v>1185</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -1415,25 +1415,25 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3">
-        <v>9999</v>
+        <v>7772</v>
       </c>
       <c r="F22" s="3">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="G22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1450,25 +1450,25 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="3">
-        <v>653</v>
+        <v>1080</v>
       </c>
       <c r="F23" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1485,25 +1485,25 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E24" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1520,25 +1520,25 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>2352</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -1555,25 +1555,25 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>11977</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -1590,22 +1590,22 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" s="3">
-        <v>1080</v>
+        <v>619</v>
       </c>
       <c r="F27" s="3">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="G27" s="3">
         <v>2</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -1625,25 +1625,25 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
         <v>98</v>
       </c>
       <c r="E28" s="3">
-        <v>2165</v>
+        <v>692</v>
       </c>
       <c r="F28" s="3">
-        <v>278</v>
+        <v>82</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -1666,16 +1666,16 @@
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>101</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1701,16 +1701,16 @@
         <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="3">
-        <v>11977</v>
+        <v>1185</v>
       </c>
       <c r="F30" s="3">
-        <v>324</v>
+        <v>84</v>
       </c>
       <c r="G30" s="3">
         <v>5</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
   <si>
     <t>URL</t>
   </si>
@@ -80,31 +80,130 @@
     <t>2019-09-18T14:45:38.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
   </si>
   <si>
     <t>Les prophéties de Christophe Barbier</t>
   </si>
   <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
     <t>2019-12-16T17:17:16.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
-  </si>
-  <si>
-    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-10T11:04:16.000Z</t>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
@@ -116,16 +215,13 @@
     <t>2019-12-11T10:23:35.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
@@ -137,28 +233,49 @@
     <t>2019-12-20T17:11:11.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
@@ -170,6 +287,33 @@
     <t>2019-12-16T09:15:01.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
   </si>
   <si>
@@ -177,159 +321,6 @@
   </si>
   <si>
     <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
-  </si>
-  <si>
-    <t>La réforme des retraites par les nuls</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:21:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -690,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -826,19 +817,19 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="3">
-        <v>1274</v>
+        <v>7772</v>
       </c>
       <c r="F5" s="3">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -855,25 +846,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="3">
-        <v>43</v>
+        <v>1185</v>
       </c>
       <c r="F6" s="3">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -882,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -890,25 +881,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>12004</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -917,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -931,28 +922,28 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
       <c r="E8" s="3">
-        <v>2165</v>
+        <v>619</v>
       </c>
       <c r="F8" s="3">
-        <v>278</v>
+        <v>29</v>
       </c>
       <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>32</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -960,22 +951,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -1001,19 +992,19 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="3">
-        <v>269112</v>
+        <v>1080</v>
       </c>
       <c r="F10" s="3">
-        <v>5243</v>
+        <v>101</v>
       </c>
       <c r="G10" s="3">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -1022,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1030,25 +1021,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
       <c r="E11" s="3">
-        <v>43</v>
+        <v>269112</v>
       </c>
       <c r="F11" s="3">
-        <v>6</v>
+        <v>5243</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1057,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -1065,25 +1056,25 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
       <c r="E12" s="3">
-        <v>9999</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3">
-        <v>357</v>
+        <v>6</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1092,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1100,25 +1091,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
       <c r="E13" s="3">
-        <v>653</v>
+        <v>1274</v>
       </c>
       <c r="F13" s="3">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1127,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1135,22 +1126,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="3">
-        <v>425</v>
+        <v>61</v>
       </c>
       <c r="F14" s="3">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1162,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1176,7 +1167,7 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -1211,13 +1202,13 @@
         <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -1246,19 +1237,19 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="3">
-        <v>9</v>
+        <v>12004</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1267,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -1281,19 +1272,19 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>68</v>
       </c>
       <c r="E18" s="3">
-        <v>641</v>
+        <v>11977</v>
       </c>
       <c r="F18" s="3">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1302,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1316,16 +1307,16 @@
         <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="3">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -1351,20 +1342,20 @@
         <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
         <v>74</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>2352</v>
       </c>
       <c r="F20" s="3">
+        <v>89</v>
+      </c>
+      <c r="G20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1372,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1386,16 +1377,16 @@
         <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1421,19 +1412,19 @@
         <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="3">
-        <v>7772</v>
+        <v>641</v>
       </c>
       <c r="F22" s="3">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="G22" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1442,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1456,19 +1447,19 @@
         <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>83</v>
       </c>
       <c r="E23" s="3">
-        <v>1080</v>
+        <v>692</v>
       </c>
       <c r="F23" s="3">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="G23" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1477,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1491,13 +1482,13 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
         <v>86</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1532,13 +1523,13 @@
         <v>89</v>
       </c>
       <c r="E25" s="3">
-        <v>2352</v>
+        <v>9999</v>
       </c>
       <c r="F25" s="3">
-        <v>89</v>
+        <v>357</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1547,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -1561,19 +1552,19 @@
         <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
         <v>92</v>
       </c>
       <c r="E26" s="3">
-        <v>11977</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>324</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1582,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -1596,19 +1587,19 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="3">
-        <v>619</v>
+        <v>9</v>
       </c>
       <c r="F27" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1617,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -1631,16 +1622,16 @@
         <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
         <v>98</v>
       </c>
       <c r="E28" s="3">
-        <v>692</v>
+        <v>32</v>
       </c>
       <c r="F28" s="3">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -1652,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -1666,16 +1657,16 @@
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>101</v>
       </c>
       <c r="E29" s="3">
-        <v>188</v>
+        <v>653</v>
       </c>
       <c r="F29" s="3">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1687,44 +1678,9 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1185</v>
-      </c>
-      <c r="F30" s="3">
-        <v>84</v>
-      </c>
-      <c r="G30" s="3">
-        <v>5</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>6</v>
-      </c>
-      <c r="L30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1757,7 +1713,6 @@
     <hyperlink ref="A27" r:id="rId25"/>
     <hyperlink ref="A28" r:id="rId26"/>
     <hyperlink ref="A29" r:id="rId27"/>
-    <hyperlink ref="A30" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1793,7 +1748,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1801,7 +1756,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1809,7 +1764,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1817,7 +1772,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1825,7 +1780,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -53,6 +53,21 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
   </si>
   <si>
@@ -65,19 +80,211 @@
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
+  </si>
+  <si>
+    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+  </si>
+  <si>
+    <t>2019-12-11T10:23:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
@@ -89,54 +296,6 @@
     <t>2019-12-23T09:00:06.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
   </si>
   <si>
@@ -146,46 +305,13 @@
     <t>2019-12-12T15:14:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
@@ -195,132 +321,6 @@
   </si>
   <si>
     <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
-  </si>
-  <si>
-    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
-  </si>
-  <si>
-    <t>2019-12-11T10:23:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -753,13 +753,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>23164</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -788,13 +788,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>41</v>
+        <v>23164</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -817,19 +817,19 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>7772</v>
+        <v>1274</v>
       </c>
       <c r="F5" s="3">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -846,25 +846,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3">
-        <v>1185</v>
+        <v>188</v>
       </c>
       <c r="F6" s="3">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -881,25 +881,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -922,19 +922,19 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3">
-        <v>619</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -951,34 +951,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="3">
-        <v>226</v>
+        <v>619</v>
       </c>
       <c r="F9" s="3">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -992,19 +992,19 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="3">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1027,19 +1027,19 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" s="3">
-        <v>269112</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>5243</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -1056,25 +1056,25 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
       <c r="E12" s="3">
-        <v>43</v>
+        <v>692</v>
       </c>
       <c r="F12" s="3">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1091,25 +1091,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="3">
-        <v>1274</v>
+        <v>32</v>
       </c>
       <c r="F13" s="3">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1132,10 +1132,10 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
         <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
       </c>
       <c r="E14" s="3">
         <v>61</v>
@@ -1161,22 +1161,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1196,25 +1196,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>269112</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>5243</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1237,19 +1237,19 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="3">
-        <v>12004</v>
+        <v>1185</v>
       </c>
       <c r="F17" s="3">
-        <v>691</v>
+        <v>84</v>
       </c>
       <c r="G17" s="3">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -1272,19 +1272,19 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>68</v>
       </c>
       <c r="E18" s="3">
-        <v>11977</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1307,7 +1307,7 @@
         <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>71</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>74</v>
@@ -1377,16 +1377,16 @@
         <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="3">
-        <v>188</v>
+        <v>653</v>
       </c>
       <c r="F21" s="3">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -1412,19 +1412,19 @@
         <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="3">
-        <v>641</v>
+        <v>11977</v>
       </c>
       <c r="F22" s="3">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1447,19 +1447,19 @@
         <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
         <v>83</v>
       </c>
       <c r="E23" s="3">
-        <v>692</v>
+        <v>43</v>
       </c>
       <c r="F23" s="3">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1482,19 +1482,19 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>86</v>
       </c>
       <c r="E24" s="3">
-        <v>21</v>
+        <v>12004</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1523,13 +1523,13 @@
         <v>89</v>
       </c>
       <c r="E25" s="3">
-        <v>9999</v>
+        <v>9</v>
       </c>
       <c r="F25" s="3">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -1552,19 +1552,19 @@
         <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>92</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>7772</v>
       </c>
       <c r="F26" s="3">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -1587,28 +1587,28 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="3">
+        <v>1080</v>
+      </c>
+      <c r="F27" s="3">
+        <v>101</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>9</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -1622,19 +1622,19 @@
         <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
         <v>98</v>
       </c>
       <c r="E28" s="3">
-        <v>32</v>
+        <v>641</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -1657,16 +1657,16 @@
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>101</v>
       </c>
       <c r="E29" s="3">
-        <v>653</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -53,6 +53,21 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
   </si>
   <si>
@@ -65,19 +80,193 @@
     <t>2019-09-18T14:45:38.000Z</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
@@ -86,96 +275,45 @@
     <t>Les prophéties de Christophe Barbier</t>
   </si>
   <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
     <t>2019-12-16T17:17:16.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
   </si>
   <si>
     <t>Besançon subventionne le sport automobile</t>
   </si>
   <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
     <t>2019-12-18T18:50:33.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
+  </si>
+  <si>
+    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+  </si>
+  <si>
+    <t>2019-12-11T10:23:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
   </si>
   <si>
@@ -183,144 +321,6 @@
   </si>
   <si>
     <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
-  </si>
-  <si>
-    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
-  </si>
-  <si>
-    <t>2019-12-11T10:23:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -753,13 +753,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>41</v>
+        <v>23164</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -788,13 +788,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>23164</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -823,13 +823,13 @@
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>1274</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -858,13 +858,13 @@
         <v>29</v>
       </c>
       <c r="E6" s="3">
-        <v>188</v>
+        <v>619</v>
       </c>
       <c r="F6" s="3">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -887,7 +887,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
@@ -928,13 +928,13 @@
         <v>36</v>
       </c>
       <c r="E8" s="3">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -957,19 +957,19 @@
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="3">
-        <v>619</v>
+        <v>2352</v>
       </c>
       <c r="F9" s="3">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -992,19 +992,19 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>269112</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>5243</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1021,22 +1021,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -1056,22 +1056,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3">
-        <v>692</v>
+        <v>226</v>
       </c>
       <c r="F12" s="3">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1091,25 +1091,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3">
-        <v>32</v>
+        <v>1185</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1126,22 +1126,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1161,22 +1161,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1196,25 +1196,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="3">
-        <v>269112</v>
+        <v>653</v>
       </c>
       <c r="F16" s="3">
-        <v>5243</v>
+        <v>102</v>
       </c>
       <c r="G16" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1237,19 +1237,19 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="3">
-        <v>1185</v>
+        <v>188</v>
       </c>
       <c r="F17" s="3">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="G17" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -1272,13 +1272,13 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>68</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
         <v>74</v>
       </c>
       <c r="E20" s="3">
-        <v>2352</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1377,19 +1377,19 @@
         <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="3">
-        <v>653</v>
+        <v>1080</v>
       </c>
       <c r="F21" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -1412,16 +1412,16 @@
         <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="3">
-        <v>11977</v>
+        <v>7772</v>
       </c>
       <c r="F22" s="3">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1447,19 +1447,19 @@
         <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
         <v>83</v>
       </c>
       <c r="E23" s="3">
-        <v>43</v>
+        <v>11977</v>
       </c>
       <c r="F23" s="3">
-        <v>6</v>
+        <v>324</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1482,19 +1482,19 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>86</v>
       </c>
       <c r="E24" s="3">
-        <v>12004</v>
+        <v>1274</v>
       </c>
       <c r="F24" s="3">
-        <v>691</v>
+        <v>128</v>
       </c>
       <c r="G24" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1517,13 +1517,13 @@
         <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="3">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -1552,19 +1552,19 @@
         <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
         <v>92</v>
       </c>
       <c r="E26" s="3">
-        <v>7772</v>
+        <v>12004</v>
       </c>
       <c r="F26" s="3">
-        <v>239</v>
+        <v>691</v>
       </c>
       <c r="G26" s="3">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -1587,19 +1587,19 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="3">
-        <v>1080</v>
+        <v>641</v>
       </c>
       <c r="F27" s="3">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -1622,19 +1622,19 @@
         <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
         <v>98</v>
       </c>
       <c r="E28" s="3">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -1657,16 +1657,16 @@
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
         <v>101</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
   <si>
     <t>URL</t>
   </si>
@@ -53,159 +53,237 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
   </si>
   <si>
     <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
   </si>
   <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
   </si>
   <si>
@@ -213,114 +291,6 @@
   </si>
   <si>
     <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
-  </si>
-  <si>
-    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
-  </si>
-  <si>
-    <t>2019-12-11T10:23:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -681,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,13 +723,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>23164</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -768,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -788,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>41</v>
+        <v>9999</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -803,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -811,25 +781,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>21</v>
+        <v>2352</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -838,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -846,25 +816,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="3">
-        <v>619</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -873,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -881,25 +851,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" s="3">
-        <v>9999</v>
+        <v>1185</v>
       </c>
       <c r="F7" s="3">
-        <v>357</v>
+        <v>84</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -908,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -916,25 +886,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
       <c r="E8" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -951,25 +921,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="3">
-        <v>2352</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -978,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -992,19 +962,19 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="3">
-        <v>269112</v>
+        <v>641</v>
       </c>
       <c r="F10" s="3">
-        <v>5243</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -1013,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1021,22 +991,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
       <c r="E11" s="3">
-        <v>692</v>
+        <v>653</v>
       </c>
       <c r="F11" s="3">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -1048,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -1056,16 +1026,16 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
       </c>
       <c r="E12" s="3">
         <v>226</v>
@@ -1091,25 +1061,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
       <c r="E13" s="3">
-        <v>1185</v>
+        <v>1080</v>
       </c>
       <c r="F13" s="3">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1118,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1126,25 +1096,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1274</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1153,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1161,25 +1131,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>11977</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1188,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1196,22 +1166,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
       <c r="E16" s="3">
-        <v>653</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -1223,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1231,22 +1201,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
       <c r="E17" s="3">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1266,25 +1236,25 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
       <c r="E18" s="3">
-        <v>9</v>
+        <v>619</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1293,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1301,16 +1271,16 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
         <v>70</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -1336,25 +1306,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>7772</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1363,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1371,25 +1341,25 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
       <c r="E21" s="3">
-        <v>1080</v>
+        <v>21</v>
       </c>
       <c r="F21" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1398,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -1406,25 +1376,25 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
       <c r="E22" s="3">
-        <v>7772</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1433,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1441,25 +1411,25 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
       <c r="E23" s="3">
-        <v>11977</v>
+        <v>32</v>
       </c>
       <c r="F23" s="3">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1468,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1476,22 +1446,22 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>86</v>
-      </c>
       <c r="E24" s="3">
-        <v>1274</v>
+        <v>43</v>
       </c>
       <c r="F24" s="3">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -1503,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1511,34 +1481,34 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
         <v>87</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
         <v>88</v>
       </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
       <c r="E25" s="3">
-        <v>32</v>
+        <v>23164</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -1546,25 +1516,25 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
         <v>90</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
         <v>91</v>
       </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
-      </c>
       <c r="E26" s="3">
-        <v>12004</v>
+        <v>188</v>
       </c>
       <c r="F26" s="3">
-        <v>691</v>
+        <v>10</v>
       </c>
       <c r="G26" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1573,114 +1543,9 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="3">
-        <v>641</v>
-      </c>
-      <c r="F27" s="3">
-        <v>80</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>12</v>
-      </c>
-      <c r="L27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="3">
-        <v>61</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1710,9 +1575,6 @@
     <hyperlink ref="A24" r:id="rId22"/>
     <hyperlink ref="A25" r:id="rId23"/>
     <hyperlink ref="A26" r:id="rId24"/>
-    <hyperlink ref="A27" r:id="rId25"/>
-    <hyperlink ref="A28" r:id="rId26"/>
-    <hyperlink ref="A29" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1720,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1748,7 +1610,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1756,7 +1618,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1764,7 +1626,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1772,17 +1634,9 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -83,6 +83,144 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
   </si>
   <si>
@@ -92,13 +230,31 @@
     <t>2019-12-19T09:00:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
@@ -107,82 +263,25 @@
     <t>Macron oublie Noël (Partie 2)</t>
   </si>
   <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
     <t>2019-12-26T11:09:42.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
@@ -192,105 +291,6 @@
   </si>
   <si>
     <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -787,19 +787,19 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3">
-        <v>2352</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -816,16 +816,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3">
         <v>9</v>
@@ -851,25 +851,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>1185</v>
+        <v>641</v>
       </c>
       <c r="F7" s="3">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G7" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -886,16 +886,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -921,19 +921,19 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -956,25 +956,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3">
-        <v>641</v>
+        <v>188</v>
       </c>
       <c r="F10" s="3">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -991,16 +991,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3">
         <v>653</v>
@@ -1026,19 +1026,19 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="3">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -1067,19 +1067,19 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="3">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1102,19 +1102,19 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="3">
-        <v>1274</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1137,19 +1137,19 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="3">
-        <v>11977</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1172,19 +1172,19 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>7772</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1207,19 +1207,19 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -1242,19 +1242,19 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="3">
-        <v>619</v>
+        <v>1274</v>
       </c>
       <c r="F18" s="3">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1277,19 +1277,19 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>2352</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1312,19 +1312,19 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="E20" s="3">
-        <v>7772</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1347,13 +1347,13 @@
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
       </c>
       <c r="E21" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1382,19 +1382,19 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
         <v>79</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1417,19 +1417,19 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>82</v>
       </c>
       <c r="E23" s="3">
-        <v>32</v>
+        <v>1185</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1452,7 +1452,7 @@
         <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
         <v>85</v>
@@ -1522,19 +1522,19 @@
         <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="3">
-        <v>188</v>
+        <v>11977</v>
       </c>
       <c r="F26" s="3">
-        <v>10</v>
+        <v>324</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -53,6 +53,24 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
   </si>
   <si>
@@ -65,24 +83,6 @@
     <t>2019-09-18T14:45:38.000Z</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
   </si>
   <si>
@@ -95,6 +95,87 @@
     <t>2019-12-11T11:14:09.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
   </si>
   <si>
@@ -104,42 +185,87 @@
     <t>2019-11-28T14:00:58.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
   </si>
   <si>
     <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
   </si>
   <si>
-    <t>Telerama</t>
-  </si>
-  <si>
     <t>2019-12-24T09:20:25.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
   </si>
   <si>
     <t>Stationnement sauvage à Besançon</t>
   </si>
   <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
     <t>2019-12-15T20:25:02.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
   </si>
   <si>
@@ -149,6 +275,15 @@
     <t>2019-12-12T15:15:00.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
   </si>
   <si>
@@ -156,141 +291,6 @@
   </si>
   <si>
     <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -723,13 +723,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>41</v>
+        <v>9999</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3">
-        <v>9999</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3">
-        <v>357</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -822,16 +822,16 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -846,27 +846,27 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3">
-        <v>641</v>
+        <v>1274</v>
       </c>
       <c r="F7" s="3">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -878,33 +878,33 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -916,30 +916,30 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="3">
-        <v>226</v>
+        <v>11977</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>324</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -962,16 +962,16 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="3">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -997,16 +997,16 @@
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="3">
-        <v>653</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1032,16 +1032,16 @@
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="3">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1067,20 +1067,20 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="F13" s="3">
+        <v>80</v>
+      </c>
+      <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
@@ -1088,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1102,13 +1102,13 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="3">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1137,7 +1137,7 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="3">
-        <v>7772</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1207,19 +1207,19 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="3">
-        <v>619</v>
+        <v>1185</v>
       </c>
       <c r="F17" s="3">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1242,31 +1242,31 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="3">
-        <v>1274</v>
+        <v>23164</v>
       </c>
       <c r="F18" s="3">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="G18" s="3">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1277,7 +1277,7 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1312,19 +1312,19 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1347,16 +1347,16 @@
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1382,19 +1382,19 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>79</v>
       </c>
       <c r="E22" s="3">
-        <v>1080</v>
+        <v>7772</v>
       </c>
       <c r="F22" s="3">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="G22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1417,19 +1417,19 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>82</v>
       </c>
       <c r="E23" s="3">
-        <v>1185</v>
+        <v>61</v>
       </c>
       <c r="F23" s="3">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="G23" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1452,19 +1452,19 @@
         <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>85</v>
       </c>
       <c r="E24" s="3">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1487,31 +1487,31 @@
         <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
         <v>88</v>
       </c>
       <c r="E25" s="3">
-        <v>23164</v>
+        <v>619</v>
       </c>
       <c r="F25" s="3">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="G25" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>4</v>
-      </c>
       <c r="L25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1522,19 +1522,19 @@
         <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="3">
-        <v>11977</v>
+        <v>653</v>
       </c>
       <c r="F26" s="3">
-        <v>324</v>
+        <v>102</v>
       </c>
       <c r="G26" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
   <si>
     <t>URL</t>
   </si>
@@ -71,16 +71,67 @@
     <t>[]</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
@@ -95,16 +146,49 @@
     <t>2019-12-11T11:14:09.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
@@ -113,33 +197,9 @@
     <t>Les prophéties de Christophe Barbier</t>
   </si>
   <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
     <t>2019-12-16T17:17:16.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
   </si>
   <si>
@@ -158,13 +218,31 @@
     <t>2019-12-19T13:10:42.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
@@ -176,49 +254,13 @@
     <t>2019-12-25T19:28:46.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
@@ -228,69 +270,6 @@
   </si>
   <si>
     <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -651,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -758,16 +737,16 @@
         <v>21</v>
       </c>
       <c r="E4" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -787,13 +766,13 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" s="3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -816,25 +795,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>11977</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>324</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -843,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -851,25 +830,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
       <c r="E7" s="3">
-        <v>1274</v>
+        <v>188</v>
       </c>
       <c r="F7" s="3">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -878,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -886,25 +865,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
       <c r="E8" s="3">
-        <v>43</v>
+        <v>653</v>
       </c>
       <c r="F8" s="3">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -913,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -921,25 +900,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
       <c r="E9" s="3">
-        <v>11977</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>324</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -948,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -956,19 +935,19 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -991,16 +970,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -1026,25 +1005,25 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
       <c r="E12" s="3">
-        <v>32</v>
+        <v>1185</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1053,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1061,25 +1040,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
       <c r="E13" s="3">
-        <v>641</v>
+        <v>226</v>
       </c>
       <c r="F13" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1088,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1096,25 +1075,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
       <c r="E14" s="3">
-        <v>9</v>
+        <v>1080</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1123,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1131,22 +1110,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1166,25 +1145,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1274</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1193,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1201,25 +1180,25 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
       <c r="E17" s="3">
-        <v>1185</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1228,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1236,34 +1215,34 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
         <v>65</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
       <c r="E18" s="3">
-        <v>23164</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -1271,34 +1250,34 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
         <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3">
-        <v>2352</v>
+        <v>23164</v>
       </c>
       <c r="F19" s="3">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1306,22 +1285,22 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
         <v>72</v>
       </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
       <c r="E20" s="3">
-        <v>1080</v>
+        <v>619</v>
       </c>
       <c r="F20" s="3">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
@@ -1333,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1341,22 +1320,22 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
       <c r="E21" s="3">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1376,25 +1355,25 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
         <v>78</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
       <c r="E22" s="3">
-        <v>7772</v>
+        <v>641</v>
       </c>
       <c r="F22" s="3">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="G22" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1403,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
@@ -1411,25 +1390,25 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
         <v>80</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
         <v>81</v>
       </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
       <c r="E23" s="3">
-        <v>61</v>
+        <v>7772</v>
       </c>
       <c r="F23" s="3">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1438,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
@@ -1446,25 +1425,25 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
         <v>84</v>
       </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
       <c r="E24" s="3">
-        <v>188</v>
+        <v>2352</v>
       </c>
       <c r="F24" s="3">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1473,79 +1452,9 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="3">
-        <v>619</v>
-      </c>
-      <c r="F25" s="3">
-        <v>29</v>
-      </c>
-      <c r="G25" s="3">
-        <v>2</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="3">
-        <v>653</v>
-      </c>
-      <c r="F26" s="3">
-        <v>102</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>7</v>
-      </c>
-      <c r="L26" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1573,8 +1482,6 @@
     <hyperlink ref="A22" r:id="rId20"/>
     <hyperlink ref="A23" r:id="rId21"/>
     <hyperlink ref="A24" r:id="rId22"/>
-    <hyperlink ref="A25" r:id="rId23"/>
-    <hyperlink ref="A26" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1582,7 +1489,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1610,7 +1517,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1618,7 +1525,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1626,17 +1533,9 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -71,6 +71,78 @@
     <t>[]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
   </si>
   <si>
@@ -83,6 +155,114 @@
     <t>2019-11-04T20:42:13.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
   </si>
   <si>
@@ -90,186 +270,6 @@
   </si>
   <si>
     <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -731,28 +731,28 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="3">
-        <v>43</v>
+        <v>23164</v>
       </c>
       <c r="F4" s="3">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -760,22 +760,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -801,16 +801,16 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>11977</v>
+        <v>1185</v>
       </c>
       <c r="F6" s="3">
-        <v>324</v>
+        <v>84</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -830,22 +830,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -865,22 +865,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="3">
-        <v>653</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -906,7 +906,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
       <c r="E10" s="3">
-        <v>21</v>
+        <v>11977</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -970,25 +970,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1011,19 +1011,19 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="3">
-        <v>1185</v>
+        <v>226</v>
       </c>
       <c r="F12" s="3">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1046,20 +1046,20 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="3">
-        <v>226</v>
+        <v>641</v>
       </c>
       <c r="F13" s="3">
+        <v>80</v>
+      </c>
+      <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1081,19 +1081,19 @@
         <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="3">
-        <v>1080</v>
+        <v>7772</v>
       </c>
       <c r="F14" s="3">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1116,7 +1116,7 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -1151,19 +1151,19 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="3">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1186,19 +1186,19 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1221,19 +1221,19 @@
         <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -1262,22 +1262,22 @@
         <v>69</v>
       </c>
       <c r="E19" s="3">
-        <v>23164</v>
+        <v>2352</v>
       </c>
       <c r="F19" s="3">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="G19" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>4</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1291,19 +1291,19 @@
         <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="3">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1326,16 +1326,16 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1361,16 +1361,16 @@
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>78</v>
       </c>
       <c r="E22" s="3">
-        <v>641</v>
+        <v>1274</v>
       </c>
       <c r="F22" s="3">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
@@ -1396,19 +1396,19 @@
         <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
       </c>
       <c r="E23" s="3">
-        <v>7772</v>
+        <v>653</v>
       </c>
       <c r="F23" s="3">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="G23" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
@@ -1431,19 +1431,19 @@
         <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="3">
-        <v>2352</v>
+        <v>32</v>
       </c>
       <c r="F24" s="3">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-week-r.xlsx
+++ b/app/assets/data/info/evo-france-info-week-r.xlsx
@@ -71,6 +71,69 @@
     <t>[]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
   </si>
   <si>
@@ -80,135 +143,126 @@
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
   </si>
   <si>
     <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
   </si>
   <si>
-    <t>Telerama</t>
-  </si>
-  <si>
     <t>2019-12-16T13:15:11.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
   </si>
   <si>
     <t>Macron oublie Noël (Partie 2)</t>
   </si>
   <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
     <t>2019-12-26T11:09:42.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
   </si>
   <si>
@@ -216,60 +270,6 @@
   </si>
   <si>
     <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 7 days</t>
@@ -731,28 +731,28 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3">
-        <v>23164</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -760,26 +760,26 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="F5" s="3">
+        <v>80</v>
+      </c>
+      <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -795,22 +795,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>1185</v>
+        <v>11977</v>
       </c>
       <c r="F6" s="3">
-        <v>84</v>
+        <v>324</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -836,19 +836,19 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" s="3">
-        <v>21</v>
+        <v>1080</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -865,16 +865,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -900,19 +900,19 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>41</v>
       </c>
       <c r="E10" s="3">
-        <v>11977</v>
+        <v>23164</v>
       </c>
       <c r="F10" s="3">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="G10" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -982,13 +982,13 @@
         <v>45</v>
       </c>
       <c r="E11" s="3">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1011,16 +1011,16 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="3">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1046,19 +1046,19 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="3">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1081,19 +1081,19 @@
         <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="3">
-        <v>7772</v>
+        <v>653</v>
       </c>
       <c r="F14" s="3">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="G14" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1116,20 +1116,20 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
       </c>
       <c r="E15" s="3">
-        <v>61</v>
+        <v>2352</v>
       </c>
       <c r="F15" s="3">
+        <v>89</v>
+      </c>
+      <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1151,16 +1151,16 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="3">
-        <v>1080</v>
+        <v>1274</v>
       </c>
       <c r="F17" s="3">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="G17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1221,19 +1221,19 @@
         <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="3">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -1256,19 +1256,19 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>69</v>
       </c>
       <c r="E19" s="3">
-        <v>2352</v>
+        <v>61</v>
       </c>
       <c r="F19" s="3">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1291,16 +1291,16 @@
         <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1326,19 +1326,19 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="3">
-        <v>188</v>
+        <v>7772</v>
       </c>
       <c r="F21" s="3">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
@@ -1361,16 +1361,16 @@
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
         <v>78</v>
       </c>
       <c r="E22" s="3">
-        <v>1274</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
@@ -1396,19 +1396,19 @@
         <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
       </c>
       <c r="E23" s="3">
-        <v>653</v>
+        <v>1185</v>
       </c>
       <c r="F23" s="3">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
@@ -1431,19 +1431,19 @@
         <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="3">
-        <v>32</v>
+        <v>619</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
